--- a/case/Imooc.xlsx
+++ b/case/Imooc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9924"/>
+    <workbookView windowWidth="22500" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>case编号</t>
   </si>
@@ -57,7 +57,7 @@
     <t>yes</t>
   </si>
   <si>
-    <t>login</t>
+    <t>login/mobile</t>
   </si>
   <si>
     <t>post</t>
@@ -107,12 +107,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +122,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -129,70 +159,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,6 +205,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -211,62 +228,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,37 +274,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,145 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,11 +468,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,17 +503,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,45 +560,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -577,148 +570,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,17 +1070,17 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8.44444444444444" customWidth="1"/>
+    <col min="5" max="5" width="8.44247787610619" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="24.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="15.4444444444444" customWidth="1"/>
-    <col min="9" max="9" width="10.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="24.8849557522124" customWidth="1"/>
+    <col min="8" max="8" width="15.4424778761062" customWidth="1"/>
+    <col min="9" max="9" width="10.5575221238938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1212,7 +1205,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1229,7 +1222,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/case/Imooc.xlsx
+++ b/case/Imooc.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11020" windowWidth="19420" xWindow="13550" yWindow="-110"/>
+    <workbookView windowWidth="22500" windowHeight="11310"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>case编号</t>
   </si>
@@ -79,12 +79,6 @@
     <t>mec</t>
   </si>
   <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>{"status": 0, "data": {"banner": [{"id": 2262, "type": 6, "type_id": 330, "name": "\u524d\u7aef\u4e0b\u4e00\u4ee3\u5f00\u53d1\u8bed\u8a00TypeScript  \u4ece\u57fa\u7840\u5230axios\u5b9e\u6218", "pic": "http://szimg.mukewang.com/5cf721df09fc2be500000000.jpg", "links": ""}, {"id": 1648, "type": 6, "type_id": 169, "name": "Python3\u5165\u95e8\u673a\u5668\u5b66\u4e60 \u7ecf\u5178\u7b97\u6cd5\u4e0e\u5e94\u7528", "pic": "http://szimg.mukewang.com/5d0ed2d9085bd6ed09000300.jpg", "links": ""}, {"id": 1875, "type": 6, "type_id": 316, "name": "\u4ece\u57fa\u7840\u5230\u5b9e\u6218 \u624b\u628a\u624b\u5e26\u4f60\u638c\u63e1\u65b0\u7248Webpack4.0", "pic": "http://szimg.mukewang.com/5d0ed2ca086a9e6f09000300.jpg", "links": ""}, {"id": 1999, "type": 6, "type_id": 342, "name": "\u7eaf\u6b63\u5546\u4e1a\u7ea7\u5e94\u7528 Node.js Koa2\u5f00\u53d1\u5fae\u4fe1\u5c0f\u7a0b\u5e8f\u670d\u52a1\u7aef", "pic": "http://szimg.mukewang.com/5ceb5d370955f30f09000300.jpg", "links": ""}, {"id": 2158, "type": 99, "type_id": 0, "name": "Spring Cloud\u5fae\u670d\u52a1\u5f00\u53d1\u5b9e\u8df5", "pic": "http://img2.mukewang.com/5d088c4009bbebc009000300.jpg", "links": "https://www.imooc.com/read/37"}, {"id": 1709, "type": 6, "type_id": 354, "name": "Node.js\u5f00\u53d1\u4eff\u77e5\u4e4e\u670d\u52a1\u7aef \u6df1\u5165\u7406\u89e3RESTful API", "pic": "http://szimg.mukewang.com/5d0ed27508f7d96909000300.jpg", "links": ""}], "pic": [{"pic": "http://www.imooc.com/static/img/andriod/pic/actual_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/actual_night@3x.png", "type": 2}, {"pic": "http://www.imooc.com/static/img/andriod/pic/path_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/path_night@3x.png", "type": 6}, {"pic": "http://www.imooc.com/static/img/andriod/pic/question_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/question_night@3x.png", "type": 3}, {"pic": "http://www.imooc.com/static/img/andriod/pic/note_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/note_night@3x.png", "type": 4}, {"pic": "http://www.imooc.com/static/img/andriod/pic/discover_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/discover_night@3x.png", "type": 5}]}, "errorCode": 1001, "errorDesc": "\u6210\u529f", "timestamp": 1561269343507}</t>
-  </si>
-  <si>
     <t>imooc_002</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>1006</t>
   </si>
   <si>
-    <t>{"status": 1, "data": [{"name": "\u8bfe\u7a0b\u63a8\u8350", "pic": "http://www.imooc.com/static/img/andriod/icon/recommend@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/recommend_night@3x.png", "type": 1, "list_type": 1, "operate_type": 1, "course": [{"id": "1134", "name": "\u6781\u901f\u5165\u95e8SpringCloud\u4e4bAPI\u7f51\u5173\u4e0e\u670d\u52a1\u53d1\u73b0", "short_description": "SpringCloud\u5fae\u670d\u52a1\u5b9e\u6218\uff0c\u4ece\u67b6\u6784\u5230\u7f51\u5173\u5230\u670d\u52a1\u53d1\u73b0\u3002\r\n", "pic": "http://img3.mukewang.com/5d0771a608ce48cb02000114-590-330.jpg", "numbers": "1270", "type": 1, "share": "http://www.imooc.com/learn/1134", "is_learned": 0, "learn_rate": -1, "is_new": 1, "level": "\u521d\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img2.mukewang.com/5b1746ca000157da02400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "5241", "name": "Spring Cloud"}]}, {"id": "1133", "name": "PHP\u52a0\u5bc6", "short_description": "\u4e3a\u4ec0\u4e48\u8981\u4f7f\u7528\u52a0\u5bc6\uff0c\u8ba9\u6211\u4eec\u5bf9\u5bc6\u7801\u5b66\u6709\u4e2a\u521d\u6b65\u7684\u8ba4\u8bc6\u3002", "pic": "http://img3.mukewang.com/5d01e4a508f8c1e706000338-590-330.jpg", "numbers": "460", "type": 1, "share": "http://www.imooc.com/learn/1133", "is_learned": 0, "learn_rate": -1, "is_new": 1, "level": "\u4e2d\u7ea7", "skill_id": "1", "skill_name": "PHP", "skill_pic": "http://img4.mukewang.com/59c895400001280402400240.jpg", "skill_color": "5280f1", "category_pic": "http://img1.mukewang.com/5b174699000182b802400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffd273e6", "bgcolor_end": "#b3d273e6", "skills": [{"id": "1", "name": "PHP"}]}, {"id": "472", "name": "Cocos2d-x\u6e38\u620f\u4e4b\u4e03\u5915\u5973\u795e\u6293\u6355\u8ba1\u5212", "short_description": "\u62ef\u6551\u9648\u65e0\u7801\u4ece\u6e38\u620f\u5f00\u53d1\u5f00\u59cb\uff0c\u5982\u679c\u4f60\u60f3\u9006\u88ad\uff0c\u90a3\u4e48\u5feb\u6765\u5b66\u4e60", "pic": "http://img3.mukewang.com/55c47a0a0001347b06000338-590-330.jpg", "numbers": "45138", "type": 1, "share": "http://www.imooc.com/learn/472", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1361", "skill_name": "Cocos2d-x", "skill_pic": "http://img4.mukewang.com/5b17497c00016bcf02400240.jpg", "skill_color": "17c5bc", "category_pic": "http://img.mukewang.com/5b1749810001b5a002400240.jpg", "course_type": 1, "is_learn": 0, "skills": [{"id": "1361", "name": "Cocos2d-x"}, {"id": "1331", "name": "C++"}], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b"}, {"id": "125", "name": "Web App\u4e0b\u56fe\u7247\u6ed1\u52a8\u7ec4\u4ef6\u7684\u5f00\u53d1", "short_description": "\u672c\u8bfe\u7a0b\u5c31\u662f\u8bb2\u8ff0\u4ece\u96f6\u5f00\u59cb\uff0c\u5982\u4f55\u6784\u5efa\u4e00\u4e2a\u79fb\u52a8\u7aef\u7684\u6ed1\u52a8\u7ec4\u4ef6", "pic": "http://img2.mukewang.com/5705d0d600013ea906000338-590-330.jpg", "numbers": "38332", "type": 1, "share": "http://www.imooc.com/learn/125", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1260", "skill_name": "WebApp", "skill_pic": "http://img.mukewang.com/59c896080001e08602400240.jpg", "skill_color": "ff5058", "category_pic": "http://img4.mukewang.com/5b17466a0001bc0c02400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffff9600", "bgcolor_end": "#b3ff9600", "skills": [{"id": "1260", "name": "WebApp"}]}]}, {"name": "\u5c31\u4e1a\u73ed", "pic": "http://www.imooc.com/static/img/andriod/icon/class@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/class_night@3x.png", "type": 7, "list_type": 2, "operate_type": 1, "course": [{"id": "67", "name": "\u96f6\u57fa\u7840Java\u5c0f\u767d\u4f53\u9a8c\u8bfe", "short_description": "", "pic": "http://climg.mukewang.com/5c8628560001189f06000338.jpg", "numbers": "1296", "courses": "4", "type": 4, "share": "http://class.imooc.com/sc/67", "is_learned": 0, "learn_rate": -1, "steps": "4", "cat_name": "JAVA\u5f00\u53d1\u5de5\u7a0b\u5e08", "skill_name": "Android\u653b\u57ce\u72ee", "skill_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "category_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "skill_color": "00B43C", "is_new": 0, "pay_price": "9.99", "discount_type": "1", "discount_name": "\u9650\u65f6\u4fc3\u9500", "discount_price": "9.99", "discount_start_time": "0", "discount_end_time": "0", "price": 4900, "is_buy": 0}, {"id": "66", "name": "\u5165\u95e8\u4e3b\u6d41\u6846\u67b6Scrapy\u4e0e\u722c\u866b\u9879\u76ee\u5b9e\u6218", "short_description": "", "pic": "http://climg.mukewang.com/5c87804700018a9106000338.jpg", "numbers": "362", "courses": "14", "type": 4, "share": "http://class.imooc.com/sc/66", "is_learned": 0, "learn_rate": -1, "steps": "4", "cat_name": "Python\u5f00\u53d1\u5de5\u7a0b\u5e08", "skill_name": "Android\u653b\u57ce\u72ee", "skill_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "category_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "skill_color": "00B43C", "is_new": 0, "pay_price": "868", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 86800, "is_buy": 0}, {"id": "65", "name": "\u4ece\u7f51\u9875\u642d\u5efa\u5165\u95e8Python Web", "short_description": "", "pic": "http://climg.mukewang.com/5c87807700013c7906000338.jpg", "numbers": "391", "courses": "22", "type": 4, "share": "http://class.imooc.com/sc/65", "is_learned": 0, "learn_rate": -1, "steps": "4", "cat_name": "Python\u5f00\u53d1\u5de5\u7a0b\u5e08", "skill_name": "Android\u653b\u57ce\u72ee", "skill_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "category_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "skill_color": "00B43C", "is_new": 0, "pay_price": "799", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 79900, "is_buy": 0}]}, {"name": "banner\u5e7f\u544a", "pic": "", "pic_night": "", "type": 6, "list_type": 1, "operate_type": 0, "ads": [{"id": 2085, "type": 99, "type_id": 0, "name": "python", "pic": "http://img3.mukewang.com/5cd929c5099c98df10530138.jpg", "links": "https://class.imooc.com/sale/python"}]}, {"name": "\u5b9e\u6218\u63a8\u8350", "pic": "http://www.imooc.com/static/img/andriod/icon/shizhan@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/shizhan_night@3x.png", "type": 2, "list_type": 1, "operate_type": 1, "course": [{"id": "187", "name": "SpringCloud  Finchley\u4e09\u7248\u672c(M2+RELEASE+SR2)\u5fae\u670d\u52a1\u5b9e\u6218", "order_type": 2, "short_description": "\u719f\u7ec3\u4f7f\u7528SpringCloud\u7ec4\u4ef6\u5b9e\u73b0\u5fae\u670d\u52a1\uff0c\u5411\u67b6\u6784\u5e08\u8fc8\u8fdb\uff01\u3010\u5df2\u5347\u7ea7\u81f3Finchley.Release\u3011", "pic": "http://img1.sycdn.imooc.com/szimg/5cb68a1408ed350506000338-360-202.jpg", "numbers": "4111", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=187", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u9ad8\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img4.mukewang.com/5b1746ca000157da02400240.jpg", "pay_price": "366", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 36600, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/187", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "4737", "name": "\u5fae\u670d\u52a1"}, {"id": "5241", "name": "Spring Cloud"}]}, {"id": "160", "name": "Python+Django+Ansible Playbook\u81ea\u52a8\u5316\u8fd0\u7ef4\u9879\u76ee\u5b9e\u6218", "order_type": 2, "short_description": "\u3010\u8bfe\u7a0b\u4ee3\u7801\u5347\u7ea73.6\u7248\u672c\u3011\u963f\u91cc\u5927\u725b\u5168\u9762\u8df5\u884cDevOps\uff0c\u5e26\u4f60\u5f00\u542f\u8fd0\u7ef4\u4e0e\u5f00\u53d1\u95f4\u9ad8\u6548\u534f\u4f5c\u6a21\u5f0f\uff01", "pic": "http://img1.sycdn.imooc.com/szimg/5a5334a50001d3dc05400300-360-202.jpg", "numbers": "551", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=160", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1118", "skill_name": "Python", "skill_pic": "http://img1.mukewang.com/59c896b50001942802400240.jpg", "skill_color": "0070bb", "category_pic": "http://img2.mukewang.com/5b1746ed0001976102400240.jpg", "pay_price": "388", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 38800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/160", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "1118", "name": "Python"}, {"id": "5207", "name": "\u81ea\u52a8\u5316\u8fd0\u7ef4"}]}, {"id": "308", "name": "Top\u56e2\u961f\u5927\u725b\u5e26\u4f60\u73a9\u8f6cAndroid\u6027\u80fd\u5206\u6790\u4e0e\u4f18\u5316", "order_type": 2, "short_description": "\u7531\u8868\u53ca\u91cc\u5b66\u5230\u56fd\u5185Top\u56e2\u961f\u5bf9\u6027\u80fd\u95ee\u9898\u7684\u4f53\u7cfb\u4f18\u5316\u65b9\u6848\u3001\u624b\u6bb5\u53ca\u4fdd\u969c\u7ecf\u9a8c", "pic": "http://img1.sycdn.imooc.com/szimg/5c26f19508ce8c8100000000-360-202.jpg", "numbers": "527", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=308", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u9ad8\u7ea7", "skill_id": "223", "skill_name": "Android", "skill_pic": "http://img4.mukewang.com/5b18943b00018ba502400240.jpg", "skill_color": "00b85a", "category_pic": "http://img3.mukewang.com/5b1747e50001d45c02400240.jpg", "pay_price": "288", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 28800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/308", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff00b95a", "bgcolor_end": "#b300b95a", "skills": [{"id": "223", "name": "Android"}]}, {"id": "274", "name": "MySQL\u6570\u636e\u5e93\u96c6\u7fa4-PXC\u65b9\u6848", "order_type": 2, "short_description": "\u5b66\u4e60PXC\uff0c\u6253\u9020\u9ad8\u4ef7\u503c\u7684MySQL\u96c6\u7fa4", "pic": "http://img1.sycdn.imooc.com/szimg/5b8e74ac00019f7d05400300-360-202.jpg", "numbers": "238", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=274", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "952", "skill_name": "MySQL", "skill_pic": "http://img2.mukewang.com/5b17498d0001b07f02400240.jpg", "skill_color": "5892ee", "category_pic": "http://img1.mukewang.com/5b1749940001ab5a02400240.jpg", "pay_price": "299", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 29900, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/274", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "952", "name": "MySQL"}]}, {"id": "167", "name": "BAT\u5927\u725b\u4eb2\u6388 \u57fa\u4e8eElasticSearch\u7684\u641c\u623f\u7f51\u5b9e\u6218 ", "order_type": 2, "short_description": "ES+MySQL+Kafka\uff0c\u7ed3\u5408\u767e\u5ea6\u5730\u56fe\u3001ELK\u7b49\u5b9e\u8df5ES\u9ad8\u7ea7\u5e94\u7528\uff0c\u6253\u9020\u5f3a\u529b\u7ad9\u5185\u641c\u7d22", "pic": "http://img1.sycdn.imooc.com/szimg/5a308c9400011c1305400300-360-202.jpg", "numbers": "669", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=167", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u9ad8\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img.mukewang.com/5b1746ca000157da02400240.jpg", "pay_price": "348", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 34800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/167", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "1359", "name": "\u5927\u6570\u636e"}]}, {"id": "208", "name": "MyCAT+MySQL\u642d\u5efa\u9ad8\u53ef\u7528\u4f01\u4e1a\u7ea7\u6570\u636e\u5e93\u96c6\u7fa4", "order_type": 2, "short_description": "\u56fd\u5185\u9876\u7ea7DBA\u4eb2\u6388\uff0c\u7cbe\u8bb2\u4f01\u4e1a\u7ea7MyCAT\u5e94\u7528\uff0c\u8be6\u89e3\u4e1a\u52a1\u6570\u636e\u5e93\u5206\u5e93\u5206\u8868\u3001\u8bfb\u5199\u5206\u79bb", "pic": "http://img1.sycdn.imooc.com/szimg/5ad5568300018ede05400300-360-202.jpg", "numbers": "455", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=208", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "952", "skill_name": "MySQL", "skill_pic": "http://img2.mukewang.com/5b17498d0001b07f02400240.jpg", "skill_color": "5892ee", "category_pic": "http://img1.mukewang.com/5b1749940001ab5a02400240.jpg", "pay_price": "199", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 19900, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/208", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "952", "name": "MySQL"}]}]}, {"name": "\u65b0\u8bfe\u4e0a\u67b6", "pic": "http://www.imooc.com/static/img/andriod/icon/new_course@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/new_course_night@3x.png", "type": 3, "list_type": 2, "operate_type": 0, "course": [{"id": "37", "name": "\u6d4b\u8bd5\u8bfe\u7a0b\uff08\u8bf7\u52ff\u8d2d\u4e70\uff09", "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "4737", "name": "\u5fae\u670d\u52a1"}], "short_description": "\u6d4b\u8bd5\u8bfe\u7a0b\uff08\u8bf7\u52ff\u8d2d\u4e70\uff091122", "numbers": "11", "ordertype": 2, "pic": "//img1.sycdn.imooc.com/szimg/5af2b85e000134d112000675-360-202.jpg", "price": 100, "type": 2, "is_learned": 0, "is_buy": 0, "share": "http://coding.imooc.com/wap/classindex/cid/37"}, {"id": "353", "name": "\u963f\u91cc\u65b0\u96f6\u552e\u6570\u636e\u5e93\u8bbe\u8ba1\u4e0e\u5b9e\u6218 ", "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "952", "name": "MySQL"}], "short_description": "\u6570\u636e\u5e93\u662f\u5f00\u53d1\u4eba\u5458\u7684\u5fc5\u4fee\u8bfe\uff0c\u89e3\u9501\u201c\u65b0\u96f6\u552e\u201d\u4e1a\u52a1\u8ba9\u6570\u636e\u5e93\u5b9e\u6218\u80fd\u529b\u518d\u4e0a\u4e00\u5c42\u697c", "numbers": "243", "ordertype": 2, "pic": "//img1.sycdn.imooc.com/szimg/5d08d0b308c9749706000338-360-202.jpg", "price": 28800, "type": 2, "is_learned": 0, "is_buy": 0, "share": "http://coding.imooc.com/wap/classindex/cid/353"}, {"id": "359", "name": "Web\u81ea\u52a8\u5316\u6d4b\u8bd5 Selenium\u57fa\u7840\u5230\u4f01\u4e1a\u5b9e\u9645\u5e94\u7528", "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "5265", "name": "\u81ea\u52a8\u5316\u6d4b\u8bd5"}], "short_description": "\u6210\u4e3aWeb\u81ea\u52a8\u5316\u6d4b\u8bd5\u5de5\u7a0b\u5e08\u7684\u5fc5\u5907\u8bfe\u7a0b", "numbers": "14", "ordertype": 2, "pic": "//img1.sycdn.imooc.com/szimg/5d0356e3085c9d4606000338-360-202.jpg", "price": 26600, "type": 2, "is_learned": 0, "is_buy": 0, "share": "http://coding.imooc.com/wap/classindex/cid/359"}]}, {"name": "\u6155\u8bfe\u7cbe\u82f1\u540d\u5e08\u63a8\u8350", "pic": "", "pic_night": "", "type": 5, "list_type": 2, "operate_type": 0, "teachers": [{"uid": "2155343", "nickname": "\u626c\u5e06\u8fdc\u822a_", "aboutme": "\u62e5\u6709\u591a\u5e74\u5e26\u9886\u534e\u4e3a\u6570\u636e\u6316\u6398\u56e2\u961f\u7ed9\u5168\u4e16\u754c\u8303\u56f4\u5185\u8457\u540d\u8fd0\u8425\u5546\u63d0\u4f9b\u5927\u6570\u636e\u89e3\u51b3\u65b9\u6848\u7684\u7ecf\u9a8c\uff0c\u5de5\u4f5c\u4e2d\u6240\u5e26\u9886\u7684\u56e2\u961f\u4e3b\u8981\u8d1f\u8d23\u5904\u7406\u3001\u6316\u6398\u548c\u5206\u6790\u6bcf\u5929\u6570\u4ee5TB\u8ba1\u7684\u6570\u636e\u3002\u4f5c\u4e3a\u4e00\u4e2a\u5e26\u9886\u62e5\u670920\u4eba\u56e2\u961f\u6210\u529f\u5b8c\u6210\u591a\u4e2a\u5168\u7403\u9879\u76ee\u7684leader,\u975e\u5e38\u4e86\u89e3\u5f53\u4eca\u7528\u9014\u6700\u5e7f\u6cdb\u7684\u6570\u636e\u6316\u6398\u3001\u673a\u5668\u5b66\u4e60\u548c\u6570\u7406\u7edf\u8ba1\u65b9\u6cd5,\u540c\u65f6\u6709\u7740\u591a\u5e74\u719f\u7ec3\u5e94\u7528\u5404\u79cd\u6570\u636e\u6316\u6398\u5e73\u53f0\u5de5\u5177\u548c\u6570\u7406\u7edf\u8ba1\u5305(\u4f8b\u5982R,python\u548cSpark)\u7ecf\u9a8c\u3002", "portrait": "545850bb0001979202200220", "job_title": "\u6570\u636e\u79d1\u5b66\u5bb6", "img": "http://img1.mukewang.com/545850bb0001979202200220-100-100.jpg", "pic": "http://img1.mukewang.com/545850bb0001979202200220-370-370.jpg"}, {"uid": "4379042", "nickname": "\u7f16\u7a0b\u6d6a\u5b50", "aboutme": "\u4e92\u8054\u7f51\u642c\u7816\u5c0f\u738b\u5b50\uff0c\u4ece\u4e8b\u4e92\u8054\u7f51web \u5f00\u53d16\u5e74\uff0c\u70ed\u7231\u642c\u7816\u884c\u4e1a\uff0c\u6709\u4ee3\u7801\u6d01\u7656\uff0c\u5bf9PHP\uff0cPython\uff0cJava\u90fd\u6709\u6d89\u730e\uff0c \u5b9e\u8df5\u7ecf\u9a8c\u4e30\u5bcc\uff0c\u5bcc\u6709\u6fc0\u60c5\uff0c\u70ed\u7231\u5206\u4eab\uff0c\u4e50\u89c2\u5f00\u6717\uff0c\u559c\u6b22\u4e13\u7814\u65b0\u6280\u672f", "portrait": "583e9afa000166c410240770", "job_title": "PHP\u5f00\u53d1\u5de5\u7a0b\u5e08", "img": "http://img2.mukewang.com/583e9afa000166c410240770-100-100.jpg", "pic": "http://img1.mukewang.com/583e9afa000166c410240770-370-370.jpg"}, {"uid": "5245191", "nickname": "DocMike", "aboutme": "\u5b89\u5353\u5de5\u7a0b\u5e08  \u591a\u5e74\u5f00\u53d1\u548c\u5e26\u56e2\u961f\u7ecf\u9a8c\uff0c\u66fe\u5728BAT\u7b49\u591a\u5bb6\u4e00\u7ebf\u4e92\u8054\u7f51\u516c\u53f8\u5c31\u804c\uff0cP\u5927\u7855\u58eb\u6bd5\u4e1a\uff0c\u5e94\u5c4a\u751f\u5bfc\u5e08\u3001\u6821\u62db\u3001\u793e\u62db\u9762\u8bd5\u5b98\uff0c\u4e3b\u5bfc\u4e0e\u5f00\u53d1\u8fc7\u591a\u6b3e\u77e5\u540d\u7684\u4e92\u8054\u7f51\u91d1\u878d\u3001\u514d\u8d39\u56fd\u9645\u7535\u8bdd\u3001\u5916\u5356\u7b49\u9879\u76ee\u7684\u67b6\u6784\u4e0e\u5f00\u53d1", "portrait": "590b09de0001503904000400", "job_title": "\u79fb\u52a8\u5f00\u53d1\u5de5\u7a0b\u5e08", "img": "http://img3.mukewang.com/590b09de0001503904000400-100-100.jpg", "pic": "http://img.mukewang.com/590b09de0001503904000400-370-370.jpg"}, {"uid": "3017249", "nickname": "ustbhuangyi", "aboutme": "\u5317\u4eac\u79d1\u6280\u5927\u5b66\u8ba1\u7b97\u673a\u4e13\u4e1a\u7855\u58eb\u3002\u66fe\u4efb\u804c\u767e\u5ea6\uff0c\u73b0\u5c31\u804c\u6ef4\u6ef4\uff0c\u524d\u7aef\u6280\u672f\u4e13\u5bb6\u3002\u5bf9Vue.js\u6709\u5f88\u6df1\u7684\u7406\u89e3\uff0c\u662f\u300aVue.js\u6743\u5a01\u6307\u5357\u300b\u4e00\u4e66\u7684\u4e3b\u8981\u4f5c\u8005\u3002\u4ed6\u6709\u7740\u6559\u79d1\u4e66\u5f0f\u7684\u4ee3\u7801\u5199\u4f5c\u4e60\u60ef\uff0c\u5bf9\u4ee3\u7801\u6709\u6d01\u7656\uff0c\u8ffd\u6c42\u9ad8\u8d28\u91cf\u7684\u4ee3\u7801\u3002\u5f3a\u5316\u63d0\u5347\u7f16\u5199\u9ad8\u53ef\u6269\u5c55\uff0c\u901a\u7528\u6027\u5f3a\u7684\u4ee3\u7801\u7684\u80fd\u529b", "portrait": "577baef700019c4501400140", "job_title": "\u6ef4\u6ef4\u524d\u7aef\u6280\u672f\u4e13\u5bb6", "img": "http://img1.mukewang.com/577baef700019c4501400140-100-100.jpg", "pic": "http://img4.mukewang.com/577baef700019c4501400140-370-370.jpg"}, {"uid": "5027812", "nickname": "\u5feb\u4e50\u52a8\u8d77\u6765\u5440", "aboutme": "7\u5e74\u5de5\u4f5c\u7ecf\u9a8c\u7684\u8d44\u6df1\u524d\u7aef\u5de5\u7a0b\u5e08\uff0c\u4e3b\u8981\u4ece\u4e8bWeb\u89c6\u9891\u9886\u57df\u7684\u5e95\u5c42\u5f00\u53d1\u3002\u5148\u540e\u5728360\u3001\u53bb\u54ea\u513f\u7f51\u3001\u67d0\u77e5\u540d\u89c6\u9891\u516c\u53f8\u5de5\u4f5c\u3002\u5148\u540e\u8f93\u51fa\u300aES6\u96f6\u57fa\u7840\u6559\u5b66 \u89e3\u6790\u5f69\u7968\u9879\u76ee\u300b\u3001\u300a\u524d\u7aef\u8df3\u69fd\u9762\u8bd5\u5fc5\u5907\u6280\u5de7\u300b\u3001\u300a\u524d\u7aef\u9762\u8bd5\u9879\u76ee\u51b2\u523a\uff0c\u4eac\u4e1c\u91d1\u878dVue\u7ec4\u4ef6\u5316\u5b9e\u6218\u300b\u7b49\u8bfe\u7a0b", "portrait": "54584cb50001e5b302200220", "job_title": "Web\u524d\u7aef\u5de5\u7a0b\u5e08", "img": "http://img2.mukewang.com/54584cb50001e5b302200220-100-100.jpg", "pic": "http://img2.mukewang.com/54584cb50001e5b302200220-370-370.jpg"}]}, {"name": "\u731c\u4f60\u559c\u6b22", "pic": "http://www.imooc.com/static/img/andriod/icon/guess_love@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/guess_love_night@3x.png", "type": 4, "list_type": 1, "operate_type": 2, "course": [{"id": "790", "name": "django\u5165\u95e8\u4e0e\u5b9e\u8df5", "short_description": "\u624b\u628a\u624b\u5e26\u4f60\u8fdb\u5165Django\u5f00\u53d1\u7684\u5927\u95e8\uff0c\u5145\u5206\u9886\u7565Django\u7684\u9b45\u529b", "pic": "http://img.mukewang.com/586f60d90001776a06000338-590-330.jpg", "numbers": "58382", "type": 1, "share": "http://www.imooc.com/learn/790", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u521d\u7ea7", "skill_id": "1118", "skill_name": "Python", "skill_pic": "http://img3.mukewang.com/59c896b50001942802400240.jpg", "skill_color": "0070bb", "category_pic": "http://img4.mukewang.com/5b1746ed0001976102400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "1118", "name": "Python"}, {"id": "4905", "name": "Django"}]}, {"id": "62", "name": "\u4fe1\u606f\u6392\u5217\u6548\u679c", "short_description": "\u5927\u5496\u6559\u60a8\u8282\u7ea6\u7f51\u9875\u7a7a\u95f4\u7684\u65b9\u6cd5\uff0c\u5feb\u901f\u5b66\u4f1a\u4fe1\u606f\u6392\u5217\u6548\u679c\u7684\u5236\u4f5c", "pic": "http://img3.mukewang.com/574673940001426706000338-590-330.jpg", "numbers": "32145", "type": 1, "share": "http://www.imooc.com/learn/62", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u521d\u7ea7", "skill_id": "44", "skill_name": "JavaScript", "skill_pic": "http://img1.mukewang.com/5b1893fd00017f4902400240.jpg", "skill_color": "eb3030", "category_pic": "http://img4.mukewang.com/5b1893f90001d25702400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffd273e6", "bgcolor_end": "#b3d273e6", "skills": [{"id": "44", "name": "JavaScript"}]}, {"id": "640", "name": "R\u8bed\u8a00\u4e4b\u6570\u636e\u53ef\u89c6\u5316", "short_description": "R\u8bed\u8a00\u4e09\u5927\u7ed8\u56fe\u7cfb\u7edf\uff0c\u7528\u56fe\u5f62\u76f4\u89c2\u63a2\u7d22\u6570\u636e\u3001\u53d1\u73b0\u6709\u4ef7\u503c\u4fe1\u606f", "pic": "http://img3.mukewang.com/56f8a3a50001f03406000338-590-330.jpg", "numbers": "34160", "type": 1, "share": "http://www.imooc.com/learn/640", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1359", "skill_name": "\u5927\u6570\u636e", "skill_pic": "http://img3.mukewang.com/5b174aa700017b6102400240.jpg", "skill_color": "1679d3", "category_pic": "http://img.mukewang.com/5b174aae00016dda02400240.jpg", "course_type": 1, "is_learn": 0, "skills": [{"id": "1359", "name": "\u5927\u6570\u636e"}], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b"}, {"id": "214", "name": "\u6a21\u5f0f\u7684\u79d8\u5bc6---\u4ee3\u7406\u6a21\u5f0f", "short_description": "\u672c\u8282\u8bfe\u7a0b\u5c06\u5e26\u4f60\u9886\u7565Java\u7f16\u7a0b\u8bed\u8a00\u4e2d\u4ee3\u7406\u6a21\u5f0f\u7684\u5965\u5999", "pic": "http://img1.mukewang.com/572afd6000019e1f06000338-590-330.jpg", "numbers": "50839", "type": 1, "share": "http://www.imooc.com/learn/214", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img1.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img4.mukewang.com/5b1746ca000157da02400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}]}, {"id": "262", "name": "RabbitMQ\u6d88\u606f\u4e2d\u95f4\u4ef6\u6280\u672f\u7cbe\u8bb2", "order_type": 2, "short_description": "\u4ece0\u52301\uff0c\u5168\u9762\u6df1\u5165\u638c\u63e1RabbitMQ\u6d88\u606f\u4e2d\u95f4\u4ef6\u6280\u672f", "pic": "http://img1.sycdn.imooc.com/szimg/5b6015ac00011ca105400300-360-202.jpg", "numbers": "824", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=262", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img2.mukewang.com/5b1746ca000157da02400240.jpg", "pay_price": "348", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 34800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/262", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "4903", "name": "SpringBoot"}]}, {"id": "225", "name": "HTTP\u534f\u8bae\u539f\u7406+\u5b9e\u8df5Web\u5f00\u53d1\u5de5\u7a0b\u5e08\u5fc5\u5b66", "order_type": 2, "short_description": "\u89e3\u6790HTTP\u534f\u8bae\u539f\u7406 \u592f\u5b9eHTTP\u6280\u672f\u57fa\u7840 \u6253\u901a\u524d\u540e\u7aef\u52a9\u4f60\u5feb\u901f\u6210\u957f", "pic": "http://img1.sycdn.imooc.com/szimg/5b0cb5df00016e5405400300-360-202.jpg", "numbers": "2593", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=225", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "44", "skill_name": "JavaScript", "skill_pic": "http://img.mukewang.com/5b1893fd00017f4902400240.jpg", "skill_color": "eb3030", "category_pic": "http://img.mukewang.com/5b1893f90001d25702400240.jpg", "pay_price": "99", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 9900, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/225", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffd273e6", "bgcolor_end": "#b3d273e6", "skills": [{"id": "44", "name": "JavaScript"}, {"id": "222", "name": "Node.js"}]}]}], "errorCode": 1000, "errorDesc": "\u6210\u529f", "timestamp": 1561274618249}</t>
-  </si>
-  <si>
     <t>imooc_003</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>json</t>
   </si>
   <si>
-    <t>通过</t>
-  </si>
-  <si>
     <t>imooc_004</t>
   </si>
   <si>
@@ -148,9 +136,6 @@
     <t>{"username":"111114"}</t>
   </si>
   <si>
-    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1563094047429}</t>
-  </si>
-  <si>
     <t>imooc_005</t>
   </si>
   <si>
@@ -163,9 +148,6 @@
     <t>{"username":"111115"}</t>
   </si>
   <si>
-    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1563094047603}</t>
-  </si>
-  <si>
     <t>imooc_006</t>
   </si>
   <si>
@@ -178,9 +160,6 @@
     <t>{"username":"111116"}</t>
   </si>
   <si>
-    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1562483684426}</t>
-  </si>
-  <si>
     <t>imooc_007</t>
   </si>
   <si>
@@ -191,54 +170,366 @@
   </si>
   <si>
     <t>{"username":"111117"}</t>
-  </si>
-  <si>
-    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1563094048035}</t>
-  </si>
-  <si>
-    <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1562483684951}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
-    <font>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -246,38 +537,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -324,7 +906,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -357,26 +939,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -409,23 +974,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -567,40 +1115,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0" zoomScale="175" zoomScaleNormal="175">
-      <selection activeCell="M2" sqref="M2:M8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="11.25"/>
-    <col customWidth="1" max="2" min="2" style="4" width="8.08203125"/>
-    <col customWidth="1" max="3" min="3" style="4" width="4.83203125"/>
-    <col customWidth="1" max="5" min="4" style="4" width="11.5"/>
-    <col customWidth="1" max="6" min="6" style="4" width="12.08203125"/>
-    <col customWidth="1" max="7" min="7" style="4" width="9.08203125"/>
-    <col customWidth="1" max="8" min="8" style="4" width="13.5"/>
-    <col customWidth="1" max="10" min="9" style="4" width="10"/>
-    <col customWidth="1" max="11" min="11" style="4" width="17.5"/>
-    <col customWidth="1" max="12" min="12" style="3" width="6.58203125"/>
-    <col customWidth="1" max="14" min="14" style="4" width="16.33203125"/>
+    <col min="1" max="1" width="11.2477876106195" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.07964601769912" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83185840707965" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5044247787611" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.0796460176991" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.07964601769912" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5044247787611" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5044247787611" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6106194690265" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.3362831858407" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -637,7 +1176,7 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -647,7 +1186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row customHeight="1" ht="23.5" r="2" s="4" spans="1:14">
+    <row r="2" ht="23.5" customHeight="1" spans="1:14">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -657,13 +1196,13 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I2" t="s">
@@ -675,245 +1214,211 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2"/>
+    </row>
+    <row r="3" ht="29.15" customHeight="1" spans="1:14">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
+      <c r="B3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="29.15" r="3" s="4" spans="1:14">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="N3"/>
+    </row>
+    <row r="4" ht="75.65" customHeight="1" spans="1:11">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="B4" t="s">
         <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="75.65000000000001" r="4" s="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" ht="42" customHeight="1" spans="1:14">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
+      <c r="B5" t="s">
         <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="42" r="5" s="4" spans="1:14">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>43</v>
+      <c r="H5" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" t="s">
-        <v>44</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="N5"/>
     </row>
-    <row customHeight="1" ht="42" r="6" s="4" spans="1:14">
+    <row r="6" ht="42" customHeight="1" spans="1:14">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>48</v>
+      <c r="H6" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>49</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="N6"/>
     </row>
-    <row customHeight="1" ht="42" r="7" s="4" spans="1:14">
+    <row r="7" ht="42" customHeight="1" spans="1:14">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>53</v>
+      <c r="H7" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" t="s">
-        <v>54</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="N7"/>
     </row>
-    <row customHeight="1" ht="42" r="8" s="4" spans="1:14">
+    <row r="8" ht="42" customHeight="1" spans="1:14">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>58</v>
+      <c r="H8" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" t="s">
-        <v>59</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="N8"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="N10" t="s">
-        <v>60</v>
-      </c>
+    <row r="10" spans="14:14">
+      <c r="N10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="http://www.imooc.com/login/mobile" ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" display="api3/getbanneradvertver2"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/case/Imooc.xlsx
+++ b/case/Imooc.xlsx
@@ -199,6 +199,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -207,12 +244,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -220,26 +258,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,7 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,17 +283,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,55 +306,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -344,187 +344,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,16 +539,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,16 +622,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,148 +640,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,8 +1123,8 @@
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:Q10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -1253,6 +1253,7 @@
       <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="M3"/>
       <c r="N3"/>
     </row>
     <row r="4" ht="75.65" customHeight="1" spans="1:11">

--- a/case/Imooc.xlsx
+++ b/case/Imooc.xlsx
@@ -1097,7 +1097,11 @@
           <t>通过</t>
         </is>
       </c>
-      <c r="N2" s="0" t="n"/>
+      <c r="N2" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 0, "data": {"banner": [{"id": 2262, "type": 6, "type_id": 330, "name": "\u524d\u7aef\u4e0b\u4e00\u4ee3\u5f00\u53d1\u8bed\u8a00TypeScript  \u4ece\u57fa\u7840\u5230axios\u5b9e\u6218", "pic": "http://szimg.mukewang.com/5cf721df09fc2be500000000.jpg", "links": ""}, {"id": 1648, "type": 6, "type_id": 169, "name": "Python3\u5165\u95e8\u673a\u5668\u5b66\u4e60 \u7ecf\u5178\u7b97\u6cd5\u4e0e\u5e94\u7528", "pic": "http://szimg.mukewang.com/5d0ed2d9085bd6ed09000300.jpg", "links": ""}, {"id": 1875, "type": 6, "type_id": 316, "name": "\u4ece\u57fa\u7840\u5230\u5b9e\u6218 \u624b\u628a\u624b\u5e26\u4f60\u638c\u63e1\u65b0\u7248Webpack4.0", "pic": "http://szimg.mukewang.com/5d0ed2ca086a9e6f09000300.jpg", "links": ""}, {"id": 1999, "type": 6, "type_id": 342, "name": "\u7eaf\u6b63\u5546\u4e1a\u7ea7\u5e94\u7528 Node.js Koa2\u5f00\u53d1\u5fae\u4fe1\u5c0f\u7a0b\u5e8f\u670d\u52a1\u7aef", "pic": "http://szimg.mukewang.com/5ceb5d370955f30f09000300.jpg", "links": ""}, {"id": 2158, "type": 99, "type_id": 0, "name": "Spring Cloud\u5fae\u670d\u52a1\u5f00\u53d1\u5b9e\u8df5", "pic": "http://img2.mukewang.com/5d088c4009bbebc009000300.jpg", "links": "https://www.imooc.com/read/37"}, {"id": 1709, "type": 6, "type_id": 354, "name": "Node.js\u5f00\u53d1\u4eff\u77e5\u4e4e\u670d\u52a1\u7aef \u6df1\u5165\u7406\u89e3RESTful API", "pic": "http://szimg.mukewang.com/5d0ed27508f7d96909000300.jpg", "links": ""}], "pic": [{"pic": "http://www.imooc.com/static/img/andriod/pic/actual_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/actual_night@3x.png", "type": 2}, {"pic": "http://www.imooc.com/static/img/andriod/pic/path_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/path_night@3x.png", "type": 6}, {"pic": "http://www.imooc.com/static/img/andriod/pic/question_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/question_night@3x.png", "type": 3}, {"pic": "http://www.imooc.com/static/img/andriod/pic/note_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/note_night@3x.png", "type": 4}, {"pic": "http://www.imooc.com/static/img/andriod/pic/discover_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/discover_night@3x.png", "type": 5}]}, "errorCode": 1000, "errorDesc": "\u6210\u529f", "timestamp": 1561269343507}</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="29.15" customHeight="1" s="1">
       <c r="A3" s="0" t="inlineStr">
@@ -1165,7 +1169,11 @@
           <t>通过</t>
         </is>
       </c>
-      <c r="N3" s="0" t="n"/>
+      <c r="N3" s="0" t="inlineStr">
+        <is>
+          <t>{"status": 1, "data": [{"name": "\u8bfe\u7a0b\u63a8\u8350", "pic": "http://www.imooc.com/static/img/andriod/icon/recommend@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/recommend_night@3x.png", "type": 1, "list_type": 1, "operate_type": 1, "course": [{"id": "1134", "name": "\u6781\u901f\u5165\u95e8SpringCloud\u4e4bAPI\u7f51\u5173\u4e0e\u670d\u52a1\u53d1\u73b0", "short_description": "SpringCloud\u5fae\u670d\u52a1\u5b9e\u6218\uff0c\u4ece\u67b6\u6784\u5230\u7f51\u5173\u5230\u670d\u52a1\u53d1\u73b0\u3002\r\n", "pic": "http://img3.mukewang.com/5d0771a608ce48cb02000114-590-330.jpg", "numbers": "1270", "type": 1, "share": "http://www.imooc.com/learn/1134", "is_learned": 0, "learn_rate": -1, "is_new": 1, "level": "\u521d\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img2.mukewang.com/5b1746ca000157da02400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "5241", "name": "Spring Cloud"}]}, {"id": "1133", "name": "PHP\u52a0\u5bc6", "short_description": "\u4e3a\u4ec0\u4e48\u8981\u4f7f\u7528\u52a0\u5bc6\uff0c\u8ba9\u6211\u4eec\u5bf9\u5bc6\u7801\u5b66\u6709\u4e2a\u521d\u6b65\u7684\u8ba4\u8bc6\u3002", "pic": "http://img3.mukewang.com/5d01e4a508f8c1e706000338-590-330.jpg", "numbers": "460", "type": 1, "share": "http://www.imooc.com/learn/1133", "is_learned": 0, "learn_rate": -1, "is_new": 1, "level": "\u4e2d\u7ea7", "skill_id": "1", "skill_name": "PHP", "skill_pic": "http://img4.mukewang.com/59c895400001280402400240.jpg", "skill_color": "5280f1", "category_pic": "http://img1.mukewang.com/5b174699000182b802400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffd273e6", "bgcolor_end": "#b3d273e6", "skills": [{"id": "1", "name": "PHP"}]}, {"id": "472", "name": "Cocos2d-x\u6e38\u620f\u4e4b\u4e03\u5915\u5973\u795e\u6293\u6355\u8ba1\u5212", "short_description": "\u62ef\u6551\u9648\u65e0\u7801\u4ece\u6e38\u620f\u5f00\u53d1\u5f00\u59cb\uff0c\u5982\u679c\u4f60\u60f3\u9006\u88ad\uff0c\u90a3\u4e48\u5feb\u6765\u5b66\u4e60", "pic": "http://img3.mukewang.com/55c47a0a0001347b06000338-590-330.jpg", "numbers": "45138", "type": 1, "share": "http://www.imooc.com/learn/472", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1361", "skill_name": "Cocos2d-x", "skill_pic": "http://img4.mukewang.com/5b17497c00016bcf02400240.jpg", "skill_color": "17c5bc", "category_pic": "http://img.mukewang.com/5b1749810001b5a002400240.jpg", "course_type": 1, "is_learn": 0, "skills": [{"id": "1361", "name": "Cocos2d-x"}, {"id": "1331", "name": "C++"}], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b"}, {"id": "125", "name": "Web App\u4e0b\u56fe\u7247\u6ed1\u52a8\u7ec4\u4ef6\u7684\u5f00\u53d1", "short_description": "\u672c\u8bfe\u7a0b\u5c31\u662f\u8bb2\u8ff0\u4ece\u96f6\u5f00\u59cb\uff0c\u5982\u4f55\u6784\u5efa\u4e00\u4e2a\u79fb\u52a8\u7aef\u7684\u6ed1\u52a8\u7ec4\u4ef6", "pic": "http://img2.mukewang.com/5705d0d600013ea906000338-590-330.jpg", "numbers": "38332", "type": 1, "share": "http://www.imooc.com/learn/125", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1260", "skill_name": "WebApp", "skill_pic": "http://img.mukewang.com/59c896080001e08602400240.jpg", "skill_color": "ff5058", "category_pic": "http://img4.mukewang.com/5b17466a0001bc0c02400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffff9600", "bgcolor_end": "#b3ff9600", "skills": [{"id": "1260", "name": "WebApp"}]}]}, {"name": "\u5c31\u4e1a\u73ed", "pic": "http://www.imooc.com/static/img/andriod/icon/class@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/class_night@3x.png", "type": 7, "list_type": 2, "operate_type": 1, "course": [{"id": "67", "name": "\u96f6\u57fa\u7840Java\u5c0f\u767d\u4f53\u9a8c\u8bfe", "short_description": "", "pic": "http://climg.mukewang.com/5c8628560001189f06000338.jpg", "numbers": "1296", "courses": "4", "type": 4, "share": "http://class.imooc.com/sc/67", "is_learned": 0, "learn_rate": -1, "steps": "4", "cat_name": "JAVA\u5f00\u53d1\u5de5\u7a0b\u5e08", "skill_name": "Android\u653b\u57ce\u72ee", "skill_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "category_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "skill_color": "00B43C", "is_new": 0, "pay_price": "9.99", "discount_type": "1", "discount_name": "\u9650\u65f6\u4fc3\u9500", "discount_price": "9.99", "discount_start_time": "0", "discount_end_time": "0", "price": 4900, "is_buy": 0}, {"id": "66", "name": "\u5165\u95e8\u4e3b\u6d41\u6846\u67b6Scrapy\u4e0e\u722c\u866b\u9879\u76ee\u5b9e\u6218", "short_description": "", "pic": "http://climg.mukewang.com/5c87804700018a9106000338.jpg", "numbers": "362", "courses": "14", "type": 4, "share": "http://class.imooc.com/sc/66", "is_learned": 0, "learn_rate": -1, "steps": "4", "cat_name": "Python\u5f00\u53d1\u5de5\u7a0b\u5e08", "skill_name": "Android\u653b\u57ce\u72ee", "skill_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "category_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "skill_color": "00B43C", "is_new": 0, "pay_price": "868", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 86800, "is_buy": 0}, {"id": "65", "name": "\u4ece\u7f51\u9875\u642d\u5efa\u5165\u95e8Python Web", "short_description": "", "pic": "http://climg.mukewang.com/5c87807700013c7906000338.jpg", "numbers": "391", "courses": "22", "type": 4, "share": "http://class.imooc.com/sc/65", "is_learned": 0, "learn_rate": -1, "steps": "4", "cat_name": "Python\u5f00\u53d1\u5de5\u7a0b\u5e08", "skill_name": "Android\u653b\u57ce\u72ee", "skill_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "category_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "skill_color": "00B43C", "is_new": 0, "pay_price": "799", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 79900, "is_buy": 0}]}, {"name": "banner\u5e7f\u544a", "pic": "", "pic_night": "", "type": 6, "list_type": 1, "operate_type": 0, "ads": [{"id": 2085, "type": 99, "type_id": 0, "name": "python", "pic": "http://img3.mukewang.com/5cd929c5099c98df10530138.jpg", "links": "https://class.imooc.com/sale/python"}]}, {"name": "\u5b9e\u6218\u63a8\u8350", "pic": "http://www.imooc.com/static/img/andriod/icon/shizhan@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/shizhan_night@3x.png", "type": 2, "list_type": 1, "operate_type": 1, "course": [{"id": "187", "name": "SpringCloud  Finchley\u4e09\u7248\u672c(M2+RELEASE+SR2)\u5fae\u670d\u52a1\u5b9e\u6218", "order_type": 2, "short_description": "\u719f\u7ec3\u4f7f\u7528SpringCloud\u7ec4\u4ef6\u5b9e\u73b0\u5fae\u670d\u52a1\uff0c\u5411\u67b6\u6784\u5e08\u8fc8\u8fdb\uff01\u3010\u5df2\u5347\u7ea7\u81f3Finchley.Release\u3011", "pic": "http://img1.sycdn.imooc.com/szimg/5cb68a1408ed350506000338-360-202.jpg", "numbers": "4111", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=187", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u9ad8\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img4.mukewang.com/5b1746ca000157da02400240.jpg", "pay_price": "366", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 36600, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/187", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "4737", "name": "\u5fae\u670d\u52a1"}, {"id": "5241", "name": "Spring Cloud"}]}, {"id": "160", "name": "Python+Django+Ansible Playbook\u81ea\u52a8\u5316\u8fd0\u7ef4\u9879\u76ee\u5b9e\u6218", "order_type": 2, "short_description": "\u3010\u8bfe\u7a0b\u4ee3\u7801\u5347\u7ea73.6\u7248\u672c\u3011\u963f\u91cc\u5927\u725b\u5168\u9762\u8df5\u884cDevOps\uff0c\u5e26\u4f60\u5f00\u542f\u8fd0\u7ef4\u4e0e\u5f00\u53d1\u95f4\u9ad8\u6548\u534f\u4f5c\u6a21\u5f0f\uff01", "pic": "http://img1.sycdn.imooc.com/szimg/5a5334a50001d3dc05400300-360-202.jpg", "numbers": "551", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=160", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1118", "skill_name": "Python", "skill_pic": "http://img1.mukewang.com/59c896b50001942802400240.jpg", "skill_color": "0070bb", "category_pic": "http://img2.mukewang.com/5b1746ed0001976102400240.jpg", "pay_price": "388", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 38800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/160", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "1118", "name": "Python"}, {"id": "5207", "name": "\u81ea\u52a8\u5316\u8fd0\u7ef4"}]}, {"id": "308", "name": "Top\u56e2\u961f\u5927\u725b\u5e26\u4f60\u73a9\u8f6cAndroid\u6027\u80fd\u5206\u6790\u4e0e\u4f18\u5316", "order_type": 2, "short_description": "\u7531\u8868\u53ca\u91cc\u5b66\u5230\u56fd\u5185Top\u56e2\u961f\u5bf9\u6027\u80fd\u95ee\u9898\u7684\u4f53\u7cfb\u4f18\u5316\u65b9\u6848\u3001\u624b\u6bb5\u53ca\u4fdd\u969c\u7ecf\u9a8c", "pic": "http://img1.sycdn.imooc.com/szimg/5c26f19508ce8c8100000000-360-202.jpg", "numbers": "527", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=308", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u9ad8\u7ea7", "skill_id": "223", "skill_name": "Android", "skill_pic": "http://img4.mukewang.com/5b18943b00018ba502400240.jpg", "skill_color": "00b85a", "category_pic": "http://img3.mukewang.com/5b1747e50001d45c02400240.jpg", "pay_price": "288", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 28800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/308", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff00b95a", "bgcolor_end": "#b300b95a", "skills": [{"id": "223", "name": "Android"}]}, {"id": "274", "name": "MySQL\u6570\u636e\u5e93\u96c6\u7fa4-PXC\u65b9\u6848", "order_type": 2, "short_description": "\u5b66\u4e60PXC\uff0c\u6253\u9020\u9ad8\u4ef7\u503c\u7684MySQL\u96c6\u7fa4", "pic": "http://img1.sycdn.imooc.com/szimg/5b8e74ac00019f7d05400300-360-202.jpg", "numbers": "238", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=274", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "952", "skill_name": "MySQL", "skill_pic": "http://img2.mukewang.com/5b17498d0001b07f02400240.jpg", "skill_color": "5892ee", "category_pic": "http://img1.mukewang.com/5b1749940001ab5a02400240.jpg", "pay_price": "299", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 29900, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/274", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "952", "name": "MySQL"}]}, {"id": "167", "name": "BAT\u5927\u725b\u4eb2\u6388 \u57fa\u4e8eElasticSearch\u7684\u641c\u623f\u7f51\u5b9e\u6218 ", "order_type": 2, "short_description": "ES+MySQL+Kafka\uff0c\u7ed3\u5408\u767e\u5ea6\u5730\u56fe\u3001ELK\u7b49\u5b9e\u8df5ES\u9ad8\u7ea7\u5e94\u7528\uff0c\u6253\u9020\u5f3a\u529b\u7ad9\u5185\u641c\u7d22", "pic": "http://img1.sycdn.imooc.com/szimg/5a308c9400011c1305400300-360-202.jpg", "numbers": "669", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=167", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u9ad8\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img.mukewang.com/5b1746ca000157da02400240.jpg", "pay_price": "348", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 34800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/167", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "1359", "name": "\u5927\u6570\u636e"}]}, {"id": "208", "name": "MyCAT+MySQL\u642d\u5efa\u9ad8\u53ef\u7528\u4f01\u4e1a\u7ea7\u6570\u636e\u5e93\u96c6\u7fa4", "order_type": 2, "short_description": "\u56fd\u5185\u9876\u7ea7DBA\u4eb2\u6388\uff0c\u7cbe\u8bb2\u4f01\u4e1a\u7ea7MyCAT\u5e94\u7528\uff0c\u8be6\u89e3\u4e1a\u52a1\u6570\u636e\u5e93\u5206\u5e93\u5206\u8868\u3001\u8bfb\u5199\u5206\u79bb", "pic": "http://img1.sycdn.imooc.com/szimg/5ad5568300018ede05400300-360-202.jpg", "numbers": "455", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=208", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "952", "skill_name": "MySQL", "skill_pic": "http://img2.mukewang.com/5b17498d0001b07f02400240.jpg", "skill_color": "5892ee", "category_pic": "http://img1.mukewang.com/5b1749940001ab5a02400240.jpg", "pay_price": "199", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 19900, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/208", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "952", "name": "MySQL"}]}]}, {"name": "\u65b0\u8bfe\u4e0a\u67b6", "pic": "http://www.imooc.com/static/img/andriod/icon/new_course@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/new_course_night@3x.png", "type": 3, "list_type": 2, "operate_type": 0, "course": [{"id": "37", "name": "\u6d4b\u8bd5\u8bfe\u7a0b\uff08\u8bf7\u52ff\u8d2d\u4e70\uff09", "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "4737", "name": "\u5fae\u670d\u52a1"}], "short_description": "\u6d4b\u8bd5\u8bfe\u7a0b\uff08\u8bf7\u52ff\u8d2d\u4e70\uff091122", "numbers": "11", "ordertype": 2, "pic": "//img1.sycdn.imooc.com/szimg/5af2b85e000134d112000675-360-202.jpg", "price": 100, "type": 2, "is_learned": 0, "is_buy": 0, "share": "http://coding.imooc.com/wap/classindex/cid/37"}, {"id": "353", "name": "\u963f\u91cc\u65b0\u96f6\u552e\u6570\u636e\u5e93\u8bbe\u8ba1\u4e0e\u5b9e\u6218 ", "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "952", "name": "MySQL"}], "short_description": "\u6570\u636e\u5e93\u662f\u5f00\u53d1\u4eba\u5458\u7684\u5fc5\u4fee\u8bfe\uff0c\u89e3\u9501\u201c\u65b0\u96f6\u552e\u201d\u4e1a\u52a1\u8ba9\u6570\u636e\u5e93\u5b9e\u6218\u80fd\u529b\u518d\u4e0a\u4e00\u5c42\u697c", "numbers": "243", "ordertype": 2, "pic": "//img1.sycdn.imooc.com/szimg/5d08d0b308c9749706000338-360-202.jpg", "price": 28800, "type": 2, "is_learned": 0, "is_buy": 0, "share": "http://coding.imooc.com/wap/classindex/cid/353"}, {"id": "359", "name": "Web\u81ea\u52a8\u5316\u6d4b\u8bd5 Selenium\u57fa\u7840\u5230\u4f01\u4e1a\u5b9e\u9645\u5e94\u7528", "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "5265", "name": "\u81ea\u52a8\u5316\u6d4b\u8bd5"}], "short_description": "\u6210\u4e3aWeb\u81ea\u52a8\u5316\u6d4b\u8bd5\u5de5\u7a0b\u5e08\u7684\u5fc5\u5907\u8bfe\u7a0b", "numbers": "14", "ordertype": 2, "pic": "//img1.sycdn.imooc.com/szimg/5d0356e3085c9d4606000338-360-202.jpg", "price": 26600, "type": 2, "is_learned": 0, "is_buy": 0, "share": "http://coding.imooc.com/wap/classindex/cid/359"}]}, {"name": "\u6155\u8bfe\u7cbe\u82f1\u540d\u5e08\u63a8\u8350", "pic": "", "pic_night": "", "type": 5, "list_type": 2, "operate_type": 0, "teachers": [{"uid": "2155343", "nickname": "\u626c\u5e06\u8fdc\u822a_", "aboutme": "\u62e5\u6709\u591a\u5e74\u5e26\u9886\u534e\u4e3a\u6570\u636e\u6316\u6398\u56e2\u961f\u7ed9\u5168\u4e16\u754c\u8303\u56f4\u5185\u8457\u540d\u8fd0\u8425\u5546\u63d0\u4f9b\u5927\u6570\u636e\u89e3\u51b3\u65b9\u6848\u7684\u7ecf\u9a8c\uff0c\u5de5\u4f5c\u4e2d\u6240\u5e26\u9886\u7684\u56e2\u961f\u4e3b\u8981\u8d1f\u8d23\u5904\u7406\u3001\u6316\u6398\u548c\u5206\u6790\u6bcf\u5929\u6570\u4ee5TB\u8ba1\u7684\u6570\u636e\u3002\u4f5c\u4e3a\u4e00\u4e2a\u5e26\u9886\u62e5\u670920\u4eba\u56e2\u961f\u6210\u529f\u5b8c\u6210\u591a\u4e2a\u5168\u7403\u9879\u76ee\u7684leader,\u975e\u5e38\u4e86\u89e3\u5f53\u4eca\u7528\u9014\u6700\u5e7f\u6cdb\u7684\u6570\u636e\u6316\u6398\u3001\u673a\u5668\u5b66\u4e60\u548c\u6570\u7406\u7edf\u8ba1\u65b9\u6cd5,\u540c\u65f6\u6709\u7740\u591a\u5e74\u719f\u7ec3\u5e94\u7528\u5404\u79cd\u6570\u636e\u6316\u6398\u5e73\u53f0\u5de5\u5177\u548c\u6570\u7406\u7edf\u8ba1\u5305(\u4f8b\u5982R,python\u548cSpark)\u7ecf\u9a8c\u3002", "portrait": "545850bb0001979202200220", "job_title": "\u6570\u636e\u79d1\u5b66\u5bb6", "img": "http://img1.mukewang.com/545850bb0001979202200220-100-100.jpg", "pic": "http://img1.mukewang.com/545850bb0001979202200220-370-370.jpg"}, {"uid": "4379042", "nickname": "\u7f16\u7a0b\u6d6a\u5b50", "aboutme": "\u4e92\u8054\u7f51\u642c\u7816\u5c0f\u738b\u5b50\uff0c\u4ece\u4e8b\u4e92\u8054\u7f51web \u5f00\u53d16\u5e74\uff0c\u70ed\u7231\u642c\u7816\u884c\u4e1a\uff0c\u6709\u4ee3\u7801\u6d01\u7656\uff0c\u5bf9PHP\uff0cPython\uff0cJava\u90fd\u6709\u6d89\u730e\uff0c \u5b9e\u8df5\u7ecf\u9a8c\u4e30\u5bcc\uff0c\u5bcc\u6709\u6fc0\u60c5\uff0c\u70ed\u7231\u5206\u4eab\uff0c\u4e50\u89c2\u5f00\u6717\uff0c\u559c\u6b22\u4e13\u7814\u65b0\u6280\u672f", "portrait": "583e9afa000166c410240770", "job_title": "PHP\u5f00\u53d1\u5de5\u7a0b\u5e08", "img": "http://img2.mukewang.com/583e9afa000166c410240770-100-100.jpg", "pic": "http://img1.mukewang.com/583e9afa000166c410240770-370-370.jpg"}, {"uid": "5245191", "nickname": "DocMike", "aboutme": "\u5b89\u5353\u5de5\u7a0b\u5e08  \u591a\u5e74\u5f00\u53d1\u548c\u5e26\u56e2\u961f\u7ecf\u9a8c\uff0c\u66fe\u5728BAT\u7b49\u591a\u5bb6\u4e00\u7ebf\u4e92\u8054\u7f51\u516c\u53f8\u5c31\u804c\uff0cP\u5927\u7855\u58eb\u6bd5\u4e1a\uff0c\u5e94\u5c4a\u751f\u5bfc\u5e08\u3001\u6821\u62db\u3001\u793e\u62db\u9762\u8bd5\u5b98\uff0c\u4e3b\u5bfc\u4e0e\u5f00\u53d1\u8fc7\u591a\u6b3e\u77e5\u540d\u7684\u4e92\u8054\u7f51\u91d1\u878d\u3001\u514d\u8d39\u56fd\u9645\u7535\u8bdd\u3001\u5916\u5356\u7b49\u9879\u76ee\u7684\u67b6\u6784\u4e0e\u5f00\u53d1", "portrait": "590b09de0001503904000400", "job_title": "\u79fb\u52a8\u5f00\u53d1\u5de5\u7a0b\u5e08", "img": "http://img3.mukewang.com/590b09de0001503904000400-100-100.jpg", "pic": "http://img.mukewang.com/590b09de0001503904000400-370-370.jpg"}, {"uid": "3017249", "nickname": "ustbhuangyi", "aboutme": "\u5317\u4eac\u79d1\u6280\u5927\u5b66\u8ba1\u7b97\u673a\u4e13\u4e1a\u7855\u58eb\u3002\u66fe\u4efb\u804c\u767e\u5ea6\uff0c\u73b0\u5c31\u804c\u6ef4\u6ef4\uff0c\u524d\u7aef\u6280\u672f\u4e13\u5bb6\u3002\u5bf9Vue.js\u6709\u5f88\u6df1\u7684\u7406\u89e3\uff0c\u662f\u300aVue.js\u6743\u5a01\u6307\u5357\u300b\u4e00\u4e66\u7684\u4e3b\u8981\u4f5c\u8005\u3002\u4ed6\u6709\u7740\u6559\u79d1\u4e66\u5f0f\u7684\u4ee3\u7801\u5199\u4f5c\u4e60\u60ef\uff0c\u5bf9\u4ee3\u7801\u6709\u6d01\u7656\uff0c\u8ffd\u6c42\u9ad8\u8d28\u91cf\u7684\u4ee3\u7801\u3002\u5f3a\u5316\u63d0\u5347\u7f16\u5199\u9ad8\u53ef\u6269\u5c55\uff0c\u901a\u7528\u6027\u5f3a\u7684\u4ee3\u7801\u7684\u80fd\u529b", "portrait": "577baef700019c4501400140", "job_title": "\u6ef4\u6ef4\u524d\u7aef\u6280\u672f\u4e13\u5bb6", "img": "http://img1.mukewang.com/577baef700019c4501400140-100-100.jpg", "pic": "http://img4.mukewang.com/577baef700019c4501400140-370-370.jpg"}, {"uid": "5027812", "nickname": "\u5feb\u4e50\u52a8\u8d77\u6765\u5440", "aboutme": "7\u5e74\u5de5\u4f5c\u7ecf\u9a8c\u7684\u8d44\u6df1\u524d\u7aef\u5de5\u7a0b\u5e08\uff0c\u4e3b\u8981\u4ece\u4e8bWeb\u89c6\u9891\u9886\u57df\u7684\u5e95\u5c42\u5f00\u53d1\u3002\u5148\u540e\u5728360\u3001\u53bb\u54ea\u513f\u7f51\u3001\u67d0\u77e5\u540d\u89c6\u9891\u516c\u53f8\u5de5\u4f5c\u3002\u5148\u540e\u8f93\u51fa\u300aES6\u96f6\u57fa\u7840\u6559\u5b66 \u89e3\u6790\u5f69\u7968\u9879\u76ee\u300b\u3001\u300a\u524d\u7aef\u8df3\u69fd\u9762\u8bd5\u5fc5\u5907\u6280\u5de7\u300b\u3001\u300a\u524d\u7aef\u9762\u8bd5\u9879\u76ee\u51b2\u523a\uff0c\u4eac\u4e1c\u91d1\u878dVue\u7ec4\u4ef6\u5316\u5b9e\u6218\u300b\u7b49\u8bfe\u7a0b", "portrait": "54584cb50001e5b302200220", "job_title": "Web\u524d\u7aef\u5de5\u7a0b\u5e08", "img": "http://img2.mukewang.com/54584cb50001e5b302200220-100-100.jpg", "pic": "http://img2.mukewang.com/54584cb50001e5b302200220-370-370.jpg"}]}, {"name": "\u731c\u4f60\u559c\u6b22", "pic": "http://www.imooc.com/static/img/andriod/icon/guess_love@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/guess_love_night@3x.png", "type": 4, "list_type": 1, "operate_type": 2, "course": [{"id": "790", "name": "django\u5165\u95e8\u4e0e\u5b9e\u8df5", "short_description": "\u624b\u628a\u624b\u5e26\u4f60\u8fdb\u5165Django\u5f00\u53d1\u7684\u5927\u95e8\uff0c\u5145\u5206\u9886\u7565Django\u7684\u9b45\u529b", "pic": "http://img.mukewang.com/586f60d90001776a06000338-590-330.jpg", "numbers": "58382", "type": 1, "share": "http://www.imooc.com/learn/790", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u521d\u7ea7", "skill_id": "1118", "skill_name": "Python", "skill_pic": "http://img3.mukewang.com/59c896b50001942802400240.jpg", "skill_color": "0070bb", "category_pic": "http://img4.mukewang.com/5b1746ed0001976102400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "1118", "name": "Python"}, {"id": "4905", "name": "Django"}]}, {"id": "62", "name": "\u4fe1\u606f\u6392\u5217\u6548\u679c", "short_description": "\u5927\u5496\u6559\u60a8\u8282\u7ea6\u7f51\u9875\u7a7a\u95f4\u7684\u65b9\u6cd5\uff0c\u5feb\u901f\u5b66\u4f1a\u4fe1\u606f\u6392\u5217\u6548\u679c\u7684\u5236\u4f5c", "pic": "http://img3.mukewang.com/574673940001426706000338-590-330.jpg", "numbers": "32145", "type": 1, "share": "http://www.imooc.com/learn/62", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u521d\u7ea7", "skill_id": "44", "skill_name": "JavaScript", "skill_pic": "http://img1.mukewang.com/5b1893fd00017f4902400240.jpg", "skill_color": "eb3030", "category_pic": "http://img4.mukewang.com/5b1893f90001d25702400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffd273e6", "bgcolor_end": "#b3d273e6", "skills": [{"id": "44", "name": "JavaScript"}]}, {"id": "640", "name": "R\u8bed\u8a00\u4e4b\u6570\u636e\u53ef\u89c6\u5316", "short_description": "R\u8bed\u8a00\u4e09\u5927\u7ed8\u56fe\u7cfb\u7edf\uff0c\u7528\u56fe\u5f62\u76f4\u89c2\u63a2\u7d22\u6570\u636e\u3001\u53d1\u73b0\u6709\u4ef7\u503c\u4fe1\u606f", "pic": "http://img3.mukewang.com/56f8a3a50001f03406000338-590-330.jpg", "numbers": "34160", "type": 1, "share": "http://www.imooc.com/learn/640", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1359", "skill_name": "\u5927\u6570\u636e", "skill_pic": "http://img3.mukewang.com/5b174aa700017b6102400240.jpg", "skill_color": "1679d3", "category_pic": "http://img.mukewang.com/5b174aae00016dda02400240.jpg", "course_type": 1, "is_learn": 0, "skills": [{"id": "1359", "name": "\u5927\u6570\u636e"}], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b"}, {"id": "214", "name": "\u6a21\u5f0f\u7684\u79d8\u5bc6---\u4ee3\u7406\u6a21\u5f0f", "short_description": "\u672c\u8282\u8bfe\u7a0b\u5c06\u5e26\u4f60\u9886\u7565Java\u7f16\u7a0b\u8bed\u8a00\u4e2d\u4ee3\u7406\u6a21\u5f0f\u7684\u5965\u5999", "pic": "http://img1.mukewang.com/572afd6000019e1f06000338-590-330.jpg", "numbers": "50839", "type": 1, "share": "http://www.imooc.com/learn/214", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img1.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img4.mukewang.com/5b1746ca000157da02400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}]}, {"id": "262", "name": "RabbitMQ\u6d88\u606f\u4e2d\u95f4\u4ef6\u6280\u672f\u7cbe\u8bb2", "order_type": 2, "short_description": "\u4ece0\u52301\uff0c\u5168\u9762\u6df1\u5165\u638c\u63e1RabbitMQ\u6d88\u606f\u4e2d\u95f4\u4ef6\u6280\u672f", "pic": "http://img1.sycdn.imooc.com/szimg/5b6015ac00011ca105400300-360-202.jpg", "numbers": "824", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=262", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img2.mukewang.com/5b1746ca000157da02400240.jpg", "pay_price": "348", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 34800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/262", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "4903", "name": "SpringBoot"}]}, {"id": "225", "name": "HTTP\u534f\u8bae\u539f\u7406+\u5b9e\u8df5Web\u5f00\u53d1\u5de5\u7a0b\u5e08\u5fc5\u5b66", "order_type": 2, "short_description": "\u89e3\u6790HTTP\u534f\u8bae\u539f\u7406 \u592f\u5b9eHTTP\u6280\u672f\u57fa\u7840 \u6253\u901a\u524d\u540e\u7aef\u52a9\u4f60\u5feb\u901f\u6210\u957f", "pic": "http://img1.sycdn.imooc.com/szimg/5b0cb5df00016e5405400300-360-202.jpg", "numbers": "2593", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=225", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "44", "skill_name": "JavaScript", "skill_pic": "http://img.mukewang.com/5b1893fd00017f4902400240.jpg", "skill_color": "eb3030", "category_pic": "http://img.mukewang.com/5b1893f90001d25702400240.jpg", "pay_price": "99", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 9900, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/225", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffd273e6", "bgcolor_end": "#b3d273e6", "skills": [{"id": "44", "name": "JavaScript"}, {"id": "222", "name": "Node.js"}]}]}], "errorCode": 1000, "errorDesc": "\u6210\u529f", "timestamp": 1561274618249}</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="75.65000000000001" customHeight="1" s="1">
       <c r="A4" s="0" t="inlineStr">
@@ -1282,7 +1290,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1586856963457}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1587345134774}</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1347,7 @@
       </c>
       <c r="N6" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1586856963654}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1587345135076}</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1457,7 @@
       </c>
       <c r="N8" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1586856964061}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1587345135577}</t>
         </is>
       </c>
     </row>

--- a/case/Imooc.xlsx
+++ b/case/Imooc.xlsx
@@ -35,15 +35,43 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -52,34 +80,13 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -87,7 +94,7 @@
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -96,6 +103,44 @@
       <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -109,21 +154,6 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -132,42 +162,12 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -178,174 +178,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,12 +359,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,26 +372,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,6 +407,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -441,16 +435,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,10 +477,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -489,16 +489,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -507,115 +507,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -956,7 +956,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:N8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="K3" s="0" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="N5" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1587345134774}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1587513208645}</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="N6" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1587345135076}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1587513208947}</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="N8" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1587345135577}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1587513209452}</t>
         </is>
       </c>
     </row>

--- a/case/Imooc.xlsx
+++ b/case/Imooc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>case编号</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>1006</t>
-  </si>
-  <si>
-    <t>{"status": 1, "data": [{"name": "\u8bfe\u7a0b\u63a8\u8350", "pic": "http://www.imooc.com/static/img/andriod/icon/recommend@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/recommend_night@3x.png", "type": 1, "list_type": 1, "operate_type": 1, "course": [{"id": "1134", "name": "\u6781\u901f\u5165\u95e8SpringCloud\u4e4bAPI\u7f51\u5173\u4e0e\u670d\u52a1\u53d1\u73b0", "short_description": "SpringCloud\u5fae\u670d\u52a1\u5b9e\u6218\uff0c\u4ece\u67b6\u6784\u5230\u7f51\u5173\u5230\u670d\u52a1\u53d1\u73b0\u3002\r\n", "pic": "http://img3.mukewang.com/5d0771a608ce48cb02000114-590-330.jpg", "numbers": "1270", "type": 1, "share": "http://www.imooc.com/learn/1134", "is_learned": 0, "learn_rate": -1, "is_new": 1, "level": "\u521d\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img2.mukewang.com/5b1746ca000157da02400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "5241", "name": "Spring Cloud"}]}, {"id": "1133", "name": "PHP\u52a0\u5bc6", "short_description": "\u4e3a\u4ec0\u4e48\u8981\u4f7f\u7528\u52a0\u5bc6\uff0c\u8ba9\u6211\u4eec\u5bf9\u5bc6\u7801\u5b66\u6709\u4e2a\u521d\u6b65\u7684\u8ba4\u8bc6\u3002", "pic": "http://img3.mukewang.com/5d01e4a508f8c1e706000338-590-330.jpg", "numbers": "460", "type": 1, "share": "http://www.imooc.com/learn/1133", "is_learned": 0, "learn_rate": -1, "is_new": 1, "level": "\u4e2d\u7ea7", "skill_id": "1", "skill_name": "PHP", "skill_pic": "http://img4.mukewang.com/59c895400001280402400240.jpg", "skill_color": "5280f1", "category_pic": "http://img1.mukewang.com/5b174699000182b802400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffd273e6", "bgcolor_end": "#b3d273e6", "skills": [{"id": "1", "name": "PHP"}]}, {"id": "472", "name": "Cocos2d-x\u6e38\u620f\u4e4b\u4e03\u5915\u5973\u795e\u6293\u6355\u8ba1\u5212", "short_description": "\u62ef\u6551\u9648\u65e0\u7801\u4ece\u6e38\u620f\u5f00\u53d1\u5f00\u59cb\uff0c\u5982\u679c\u4f60\u60f3\u9006\u88ad\uff0c\u90a3\u4e48\u5feb\u6765\u5b66\u4e60", "pic": "http://img3.mukewang.com/55c47a0a0001347b06000338-590-330.jpg", "numbers": "45138", "type": 1, "share": "http://www.imooc.com/learn/472", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1361", "skill_name": "Cocos2d-x", "skill_pic": "http://img4.mukewang.com/5b17497c00016bcf02400240.jpg", "skill_color": "17c5bc", "category_pic": "http://img.mukewang.com/5b1749810001b5a002400240.jpg", "course_type": 1, "is_learn": 0, "skills": [{"id": "1361", "name": "Cocos2d-x"}, {"id": "1331", "name": "C++"}], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b"}, {"id": "125", "name": "Web App\u4e0b\u56fe\u7247\u6ed1\u52a8\u7ec4\u4ef6\u7684\u5f00\u53d1", "short_description": "\u672c\u8bfe\u7a0b\u5c31\u662f\u8bb2\u8ff0\u4ece\u96f6\u5f00\u59cb\uff0c\u5982\u4f55\u6784\u5efa\u4e00\u4e2a\u79fb\u52a8\u7aef\u7684\u6ed1\u52a8\u7ec4\u4ef6", "pic": "http://img2.mukewang.com/5705d0d600013ea906000338-590-330.jpg", "numbers": "38332", "type": 1, "share": "http://www.imooc.com/learn/125", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1260", "skill_name": "WebApp", "skill_pic": "http://img.mukewang.com/59c896080001e08602400240.jpg", "skill_color": "ff5058", "category_pic": "http://img4.mukewang.com/5b17466a0001bc0c02400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffff9600", "bgcolor_end": "#b3ff9600", "skills": [{"id": "1260", "name": "WebApp"}]}]}, {"name": "\u5c31\u4e1a\u73ed", "pic": "http://www.imooc.com/static/img/andriod/icon/class@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/class_night@3x.png", "type": 7, "list_type": 2, "operate_type": 1, "course": [{"id": "67", "name": "\u96f6\u57fa\u7840Java\u5c0f\u767d\u4f53\u9a8c\u8bfe", "short_description": "", "pic": "http://climg.mukewang.com/5c8628560001189f06000338.jpg", "numbers": "1296", "courses": "4", "type": 4, "share": "http://class.imooc.com/sc/67", "is_learned": 0, "learn_rate": -1, "steps": "4", "cat_name": "JAVA\u5f00\u53d1\u5de5\u7a0b\u5e08", "skill_name": "Android\u653b\u57ce\u72ee", "skill_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "category_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "skill_color": "00B43C", "is_new": 0, "pay_price": "9.99", "discount_type": "1", "discount_name": "\u9650\u65f6\u4fc3\u9500", "discount_price": "9.99", "discount_start_time": "0", "discount_end_time": "0", "price": 4900, "is_buy": 0}, {"id": "66", "name": "\u5165\u95e8\u4e3b\u6d41\u6846\u67b6Scrapy\u4e0e\u722c\u866b\u9879\u76ee\u5b9e\u6218", "short_description": "", "pic": "http://climg.mukewang.com/5c87804700018a9106000338.jpg", "numbers": "362", "courses": "14", "type": 4, "share": "http://class.imooc.com/sc/66", "is_learned": 0, "learn_rate": -1, "steps": "4", "cat_name": "Python\u5f00\u53d1\u5de5\u7a0b\u5e08", "skill_name": "Android\u653b\u57ce\u72ee", "skill_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "category_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "skill_color": "00B43C", "is_new": 0, "pay_price": "868", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 86800, "is_buy": 0}, {"id": "65", "name": "\u4ece\u7f51\u9875\u642d\u5efa\u5165\u95e8Python Web", "short_description": "", "pic": "http://climg.mukewang.com/5c87807700013c7906000338.jpg", "numbers": "391", "courses": "22", "type": 4, "share": "http://class.imooc.com/sc/65", "is_learned": 0, "learn_rate": -1, "steps": "4", "cat_name": "Python\u5f00\u53d1\u5de5\u7a0b\u5e08", "skill_name": "Android\u653b\u57ce\u72ee", "skill_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "category_pic": "http://www.imooc.com/static/img/andriod/zhiye/android.png", "skill_color": "00B43C", "is_new": 0, "pay_price": "799", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 79900, "is_buy": 0}]}, {"name": "banner\u5e7f\u544a", "pic": "", "pic_night": "", "type": 6, "list_type": 1, "operate_type": 0, "ads": [{"id": 2085, "type": 99, "type_id": 0, "name": "python", "pic": "http://img3.mukewang.com/5cd929c5099c98df10530138.jpg", "links": "https://class.imooc.com/sale/python"}]}, {"name": "\u5b9e\u6218\u63a8\u8350", "pic": "http://www.imooc.com/static/img/andriod/icon/shizhan@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/shizhan_night@3x.png", "type": 2, "list_type": 1, "operate_type": 1, "course": [{"id": "187", "name": "SpringCloud  Finchley\u4e09\u7248\u672c(M2+RELEASE+SR2)\u5fae\u670d\u52a1\u5b9e\u6218", "order_type": 2, "short_description": "\u719f\u7ec3\u4f7f\u7528SpringCloud\u7ec4\u4ef6\u5b9e\u73b0\u5fae\u670d\u52a1\uff0c\u5411\u67b6\u6784\u5e08\u8fc8\u8fdb\uff01\u3010\u5df2\u5347\u7ea7\u81f3Finchley.Release\u3011", "pic": "http://img1.sycdn.imooc.com/szimg/5cb68a1408ed350506000338-360-202.jpg", "numbers": "4111", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=187", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u9ad8\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img4.mukewang.com/5b1746ca000157da02400240.jpg", "pay_price": "366", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 36600, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/187", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "4737", "name": "\u5fae\u670d\u52a1"}, {"id": "5241", "name": "Spring Cloud"}]}, {"id": "160", "name": "Python+Django+Ansible Playbook\u81ea\u52a8\u5316\u8fd0\u7ef4\u9879\u76ee\u5b9e\u6218", "order_type": 2, "short_description": "\u3010\u8bfe\u7a0b\u4ee3\u7801\u5347\u7ea73.6\u7248\u672c\u3011\u963f\u91cc\u5927\u725b\u5168\u9762\u8df5\u884cDevOps\uff0c\u5e26\u4f60\u5f00\u542f\u8fd0\u7ef4\u4e0e\u5f00\u53d1\u95f4\u9ad8\u6548\u534f\u4f5c\u6a21\u5f0f\uff01", "pic": "http://img1.sycdn.imooc.com/szimg/5a5334a50001d3dc05400300-360-202.jpg", "numbers": "551", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=160", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1118", "skill_name": "Python", "skill_pic": "http://img1.mukewang.com/59c896b50001942802400240.jpg", "skill_color": "0070bb", "category_pic": "http://img2.mukewang.com/5b1746ed0001976102400240.jpg", "pay_price": "388", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 38800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/160", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "1118", "name": "Python"}, {"id": "5207", "name": "\u81ea\u52a8\u5316\u8fd0\u7ef4"}]}, {"id": "308", "name": "Top\u56e2\u961f\u5927\u725b\u5e26\u4f60\u73a9\u8f6cAndroid\u6027\u80fd\u5206\u6790\u4e0e\u4f18\u5316", "order_type": 2, "short_description": "\u7531\u8868\u53ca\u91cc\u5b66\u5230\u56fd\u5185Top\u56e2\u961f\u5bf9\u6027\u80fd\u95ee\u9898\u7684\u4f53\u7cfb\u4f18\u5316\u65b9\u6848\u3001\u624b\u6bb5\u53ca\u4fdd\u969c\u7ecf\u9a8c", "pic": "http://img1.sycdn.imooc.com/szimg/5c26f19508ce8c8100000000-360-202.jpg", "numbers": "527", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=308", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u9ad8\u7ea7", "skill_id": "223", "skill_name": "Android", "skill_pic": "http://img4.mukewang.com/5b18943b00018ba502400240.jpg", "skill_color": "00b85a", "category_pic": "http://img3.mukewang.com/5b1747e50001d45c02400240.jpg", "pay_price": "288", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 28800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/308", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff00b95a", "bgcolor_end": "#b300b95a", "skills": [{"id": "223", "name": "Android"}]}, {"id": "274", "name": "MySQL\u6570\u636e\u5e93\u96c6\u7fa4-PXC\u65b9\u6848", "order_type": 2, "short_description": "\u5b66\u4e60PXC\uff0c\u6253\u9020\u9ad8\u4ef7\u503c\u7684MySQL\u96c6\u7fa4", "pic": "http://img1.sycdn.imooc.com/szimg/5b8e74ac00019f7d05400300-360-202.jpg", "numbers": "238", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=274", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "952", "skill_name": "MySQL", "skill_pic": "http://img2.mukewang.com/5b17498d0001b07f02400240.jpg", "skill_color": "5892ee", "category_pic": "http://img1.mukewang.com/5b1749940001ab5a02400240.jpg", "pay_price": "299", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 29900, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/274", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "952", "name": "MySQL"}]}, {"id": "167", "name": "BAT\u5927\u725b\u4eb2\u6388 \u57fa\u4e8eElasticSearch\u7684\u641c\u623f\u7f51\u5b9e\u6218 ", "order_type": 2, "short_description": "ES+MySQL+Kafka\uff0c\u7ed3\u5408\u767e\u5ea6\u5730\u56fe\u3001ELK\u7b49\u5b9e\u8df5ES\u9ad8\u7ea7\u5e94\u7528\uff0c\u6253\u9020\u5f3a\u529b\u7ad9\u5185\u641c\u7d22", "pic": "http://img1.sycdn.imooc.com/szimg/5a308c9400011c1305400300-360-202.jpg", "numbers": "669", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=167", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u9ad8\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img.mukewang.com/5b1746ca000157da02400240.jpg", "pay_price": "348", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 34800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/167", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "1359", "name": "\u5927\u6570\u636e"}]}, {"id": "208", "name": "MyCAT+MySQL\u642d\u5efa\u9ad8\u53ef\u7528\u4f01\u4e1a\u7ea7\u6570\u636e\u5e93\u96c6\u7fa4", "order_type": 2, "short_description": "\u56fd\u5185\u9876\u7ea7DBA\u4eb2\u6388\uff0c\u7cbe\u8bb2\u4f01\u4e1a\u7ea7MyCAT\u5e94\u7528\uff0c\u8be6\u89e3\u4e1a\u52a1\u6570\u636e\u5e93\u5206\u5e93\u5206\u8868\u3001\u8bfb\u5199\u5206\u79bb", "pic": "http://img1.sycdn.imooc.com/szimg/5ad5568300018ede05400300-360-202.jpg", "numbers": "455", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=208", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "952", "skill_name": "MySQL", "skill_pic": "http://img2.mukewang.com/5b17498d0001b07f02400240.jpg", "skill_color": "5892ee", "category_pic": "http://img1.mukewang.com/5b1749940001ab5a02400240.jpg", "pay_price": "199", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 19900, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/208", "is_learn": 0, "act_name": [], "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "952", "name": "MySQL"}]}]}, {"name": "\u65b0\u8bfe\u4e0a\u67b6", "pic": "http://www.imooc.com/static/img/andriod/icon/new_course@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/new_course_night@3x.png", "type": 3, "list_type": 2, "operate_type": 0, "course": [{"id": "37", "name": "\u6d4b\u8bd5\u8bfe\u7a0b\uff08\u8bf7\u52ff\u8d2d\u4e70\uff09", "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "4737", "name": "\u5fae\u670d\u52a1"}], "short_description": "\u6d4b\u8bd5\u8bfe\u7a0b\uff08\u8bf7\u52ff\u8d2d\u4e70\uff091122", "numbers": "11", "ordertype": 2, "pic": "//img1.sycdn.imooc.com/szimg/5af2b85e000134d112000675-360-202.jpg", "price": 100, "type": 2, "is_learned": 0, "is_buy": 0, "share": "http://coding.imooc.com/wap/classindex/cid/37"}, {"id": "353", "name": "\u963f\u91cc\u65b0\u96f6\u552e\u6570\u636e\u5e93\u8bbe\u8ba1\u4e0e\u5b9e\u6218 ", "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "952", "name": "MySQL"}], "short_description": "\u6570\u636e\u5e93\u662f\u5f00\u53d1\u4eba\u5458\u7684\u5fc5\u4fee\u8bfe\uff0c\u89e3\u9501\u201c\u65b0\u96f6\u552e\u201d\u4e1a\u52a1\u8ba9\u6570\u636e\u5e93\u5b9e\u6218\u80fd\u529b\u518d\u4e0a\u4e00\u5c42\u697c", "numbers": "243", "ordertype": 2, "pic": "//img1.sycdn.imooc.com/szimg/5d08d0b308c9749706000338-360-202.jpg", "price": 28800, "type": 2, "is_learned": 0, "is_buy": 0, "share": "http://coding.imooc.com/wap/classindex/cid/353"}, {"id": "359", "name": "Web\u81ea\u52a8\u5316\u6d4b\u8bd5 Selenium\u57fa\u7840\u5230\u4f01\u4e1a\u5b9e\u9645\u5e94\u7528", "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "5265", "name": "\u81ea\u52a8\u5316\u6d4b\u8bd5"}], "short_description": "\u6210\u4e3aWeb\u81ea\u52a8\u5316\u6d4b\u8bd5\u5de5\u7a0b\u5e08\u7684\u5fc5\u5907\u8bfe\u7a0b", "numbers": "14", "ordertype": 2, "pic": "//img1.sycdn.imooc.com/szimg/5d0356e3085c9d4606000338-360-202.jpg", "price": 26600, "type": 2, "is_learned": 0, "is_buy": 0, "share": "http://coding.imooc.com/wap/classindex/cid/359"}]}, {"name": "\u6155\u8bfe\u7cbe\u82f1\u540d\u5e08\u63a8\u8350", "pic": "", "pic_night": "", "type": 5, "list_type": 2, "operate_type": 0, "teachers": [{"uid": "2155343", "nickname": "\u626c\u5e06\u8fdc\u822a_", "aboutme": "\u62e5\u6709\u591a\u5e74\u5e26\u9886\u534e\u4e3a\u6570\u636e\u6316\u6398\u56e2\u961f\u7ed9\u5168\u4e16\u754c\u8303\u56f4\u5185\u8457\u540d\u8fd0\u8425\u5546\u63d0\u4f9b\u5927\u6570\u636e\u89e3\u51b3\u65b9\u6848\u7684\u7ecf\u9a8c\uff0c\u5de5\u4f5c\u4e2d\u6240\u5e26\u9886\u7684\u56e2\u961f\u4e3b\u8981\u8d1f\u8d23\u5904\u7406\u3001\u6316\u6398\u548c\u5206\u6790\u6bcf\u5929\u6570\u4ee5TB\u8ba1\u7684\u6570\u636e\u3002\u4f5c\u4e3a\u4e00\u4e2a\u5e26\u9886\u62e5\u670920\u4eba\u56e2\u961f\u6210\u529f\u5b8c\u6210\u591a\u4e2a\u5168\u7403\u9879\u76ee\u7684leader,\u975e\u5e38\u4e86\u89e3\u5f53\u4eca\u7528\u9014\u6700\u5e7f\u6cdb\u7684\u6570\u636e\u6316\u6398\u3001\u673a\u5668\u5b66\u4e60\u548c\u6570\u7406\u7edf\u8ba1\u65b9\u6cd5,\u540c\u65f6\u6709\u7740\u591a\u5e74\u719f\u7ec3\u5e94\u7528\u5404\u79cd\u6570\u636e\u6316\u6398\u5e73\u53f0\u5de5\u5177\u548c\u6570\u7406\u7edf\u8ba1\u5305(\u4f8b\u5982R,python\u548cSpark)\u7ecf\u9a8c\u3002", "portrait": "545850bb0001979202200220", "job_title": "\u6570\u636e\u79d1\u5b66\u5bb6", "img": "http://img1.mukewang.com/545850bb0001979202200220-100-100.jpg", "pic": "http://img1.mukewang.com/545850bb0001979202200220-370-370.jpg"}, {"uid": "4379042", "nickname": "\u7f16\u7a0b\u6d6a\u5b50", "aboutme": "\u4e92\u8054\u7f51\u642c\u7816\u5c0f\u738b\u5b50\uff0c\u4ece\u4e8b\u4e92\u8054\u7f51web \u5f00\u53d16\u5e74\uff0c\u70ed\u7231\u642c\u7816\u884c\u4e1a\uff0c\u6709\u4ee3\u7801\u6d01\u7656\uff0c\u5bf9PHP\uff0cPython\uff0cJava\u90fd\u6709\u6d89\u730e\uff0c \u5b9e\u8df5\u7ecf\u9a8c\u4e30\u5bcc\uff0c\u5bcc\u6709\u6fc0\u60c5\uff0c\u70ed\u7231\u5206\u4eab\uff0c\u4e50\u89c2\u5f00\u6717\uff0c\u559c\u6b22\u4e13\u7814\u65b0\u6280\u672f", "portrait": "583e9afa000166c410240770", "job_title": "PHP\u5f00\u53d1\u5de5\u7a0b\u5e08", "img": "http://img2.mukewang.com/583e9afa000166c410240770-100-100.jpg", "pic": "http://img1.mukewang.com/583e9afa000166c410240770-370-370.jpg"}, {"uid": "5245191", "nickname": "DocMike", "aboutme": "\u5b89\u5353\u5de5\u7a0b\u5e08  \u591a\u5e74\u5f00\u53d1\u548c\u5e26\u56e2\u961f\u7ecf\u9a8c\uff0c\u66fe\u5728BAT\u7b49\u591a\u5bb6\u4e00\u7ebf\u4e92\u8054\u7f51\u516c\u53f8\u5c31\u804c\uff0cP\u5927\u7855\u58eb\u6bd5\u4e1a\uff0c\u5e94\u5c4a\u751f\u5bfc\u5e08\u3001\u6821\u62db\u3001\u793e\u62db\u9762\u8bd5\u5b98\uff0c\u4e3b\u5bfc\u4e0e\u5f00\u53d1\u8fc7\u591a\u6b3e\u77e5\u540d\u7684\u4e92\u8054\u7f51\u91d1\u878d\u3001\u514d\u8d39\u56fd\u9645\u7535\u8bdd\u3001\u5916\u5356\u7b49\u9879\u76ee\u7684\u67b6\u6784\u4e0e\u5f00\u53d1", "portrait": "590b09de0001503904000400", "job_title": "\u79fb\u52a8\u5f00\u53d1\u5de5\u7a0b\u5e08", "img": "http://img3.mukewang.com/590b09de0001503904000400-100-100.jpg", "pic": "http://img.mukewang.com/590b09de0001503904000400-370-370.jpg"}, {"uid": "3017249", "nickname": "ustbhuangyi", "aboutme": "\u5317\u4eac\u79d1\u6280\u5927\u5b66\u8ba1\u7b97\u673a\u4e13\u4e1a\u7855\u58eb\u3002\u66fe\u4efb\u804c\u767e\u5ea6\uff0c\u73b0\u5c31\u804c\u6ef4\u6ef4\uff0c\u524d\u7aef\u6280\u672f\u4e13\u5bb6\u3002\u5bf9Vue.js\u6709\u5f88\u6df1\u7684\u7406\u89e3\uff0c\u662f\u300aVue.js\u6743\u5a01\u6307\u5357\u300b\u4e00\u4e66\u7684\u4e3b\u8981\u4f5c\u8005\u3002\u4ed6\u6709\u7740\u6559\u79d1\u4e66\u5f0f\u7684\u4ee3\u7801\u5199\u4f5c\u4e60\u60ef\uff0c\u5bf9\u4ee3\u7801\u6709\u6d01\u7656\uff0c\u8ffd\u6c42\u9ad8\u8d28\u91cf\u7684\u4ee3\u7801\u3002\u5f3a\u5316\u63d0\u5347\u7f16\u5199\u9ad8\u53ef\u6269\u5c55\uff0c\u901a\u7528\u6027\u5f3a\u7684\u4ee3\u7801\u7684\u80fd\u529b", "portrait": "577baef700019c4501400140", "job_title": "\u6ef4\u6ef4\u524d\u7aef\u6280\u672f\u4e13\u5bb6", "img": "http://img1.mukewang.com/577baef700019c4501400140-100-100.jpg", "pic": "http://img4.mukewang.com/577baef700019c4501400140-370-370.jpg"}, {"uid": "5027812", "nickname": "\u5feb\u4e50\u52a8\u8d77\u6765\u5440", "aboutme": "7\u5e74\u5de5\u4f5c\u7ecf\u9a8c\u7684\u8d44\u6df1\u524d\u7aef\u5de5\u7a0b\u5e08\uff0c\u4e3b\u8981\u4ece\u4e8bWeb\u89c6\u9891\u9886\u57df\u7684\u5e95\u5c42\u5f00\u53d1\u3002\u5148\u540e\u5728360\u3001\u53bb\u54ea\u513f\u7f51\u3001\u67d0\u77e5\u540d\u89c6\u9891\u516c\u53f8\u5de5\u4f5c\u3002\u5148\u540e\u8f93\u51fa\u300aES6\u96f6\u57fa\u7840\u6559\u5b66 \u89e3\u6790\u5f69\u7968\u9879\u76ee\u300b\u3001\u300a\u524d\u7aef\u8df3\u69fd\u9762\u8bd5\u5fc5\u5907\u6280\u5de7\u300b\u3001\u300a\u524d\u7aef\u9762\u8bd5\u9879\u76ee\u51b2\u523a\uff0c\u4eac\u4e1c\u91d1\u878dVue\u7ec4\u4ef6\u5316\u5b9e\u6218\u300b\u7b49\u8bfe\u7a0b", "portrait": "54584cb50001e5b302200220", "job_title": "Web\u524d\u7aef\u5de5\u7a0b\u5e08", "img": "http://img2.mukewang.com/54584cb50001e5b302200220-100-100.jpg", "pic": "http://img2.mukewang.com/54584cb50001e5b302200220-370-370.jpg"}]}, {"name": "\u731c\u4f60\u559c\u6b22", "pic": "http://www.imooc.com/static/img/andriod/icon/guess_love@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/icon/guess_love_night@3x.png", "type": 4, "list_type": 1, "operate_type": 2, "course": [{"id": "790", "name": "django\u5165\u95e8\u4e0e\u5b9e\u8df5", "short_description": "\u624b\u628a\u624b\u5e26\u4f60\u8fdb\u5165Django\u5f00\u53d1\u7684\u5927\u95e8\uff0c\u5145\u5206\u9886\u7565Django\u7684\u9b45\u529b", "pic": "http://img.mukewang.com/586f60d90001776a06000338-590-330.jpg", "numbers": "58382", "type": 1, "share": "http://www.imooc.com/learn/790", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u521d\u7ea7", "skill_id": "1118", "skill_name": "Python", "skill_pic": "http://img3.mukewang.com/59c896b50001942802400240.jpg", "skill_color": "0070bb", "category_pic": "http://img4.mukewang.com/5b1746ed0001976102400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ff4b96dc", "bgcolor_end": "#b34b96dc", "skills": [{"id": "1118", "name": "Python"}, {"id": "4905", "name": "Django"}]}, {"id": "62", "name": "\u4fe1\u606f\u6392\u5217\u6548\u679c", "short_description": "\u5927\u5496\u6559\u60a8\u8282\u7ea6\u7f51\u9875\u7a7a\u95f4\u7684\u65b9\u6cd5\uff0c\u5feb\u901f\u5b66\u4f1a\u4fe1\u606f\u6392\u5217\u6548\u679c\u7684\u5236\u4f5c", "pic": "http://img3.mukewang.com/574673940001426706000338-590-330.jpg", "numbers": "32145", "type": 1, "share": "http://www.imooc.com/learn/62", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u521d\u7ea7", "skill_id": "44", "skill_name": "JavaScript", "skill_pic": "http://img1.mukewang.com/5b1893fd00017f4902400240.jpg", "skill_color": "eb3030", "category_pic": "http://img4.mukewang.com/5b1893f90001d25702400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffd273e6", "bgcolor_end": "#b3d273e6", "skills": [{"id": "44", "name": "JavaScript"}]}, {"id": "640", "name": "R\u8bed\u8a00\u4e4b\u6570\u636e\u53ef\u89c6\u5316", "short_description": "R\u8bed\u8a00\u4e09\u5927\u7ed8\u56fe\u7cfb\u7edf\uff0c\u7528\u56fe\u5f62\u76f4\u89c2\u63a2\u7d22\u6570\u636e\u3001\u53d1\u73b0\u6709\u4ef7\u503c\u4fe1\u606f", "pic": "http://img3.mukewang.com/56f8a3a50001f03406000338-590-330.jpg", "numbers": "34160", "type": 1, "share": "http://www.imooc.com/learn/640", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "1359", "skill_name": "\u5927\u6570\u636e", "skill_pic": "http://img3.mukewang.com/5b174aa700017b6102400240.jpg", "skill_color": "1679d3", "category_pic": "http://img.mukewang.com/5b174aae00016dda02400240.jpg", "course_type": 1, "is_learn": 0, "skills": [{"id": "1359", "name": "\u5927\u6570\u636e"}], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b"}, {"id": "214", "name": "\u6a21\u5f0f\u7684\u79d8\u5bc6---\u4ee3\u7406\u6a21\u5f0f", "short_description": "\u672c\u8282\u8bfe\u7a0b\u5c06\u5e26\u4f60\u9886\u7565Java\u7f16\u7a0b\u8bed\u8a00\u4e2d\u4ee3\u7406\u6a21\u5f0f\u7684\u5965\u5999", "pic": "http://img1.mukewang.com/572afd6000019e1f06000338-590-330.jpg", "numbers": "50839", "type": 1, "share": "http://www.imooc.com/learn/214", "is_learned": 0, "learn_rate": -1, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img1.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img4.mukewang.com/5b1746ca000157da02400240.jpg", "course_type": 1, "is_learn": 0, "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}]}, {"id": "262", "name": "RabbitMQ\u6d88\u606f\u4e2d\u95f4\u4ef6\u6280\u672f\u7cbe\u8bb2", "order_type": 2, "short_description": "\u4ece0\u52301\uff0c\u5168\u9762\u6df1\u5165\u638c\u63e1RabbitMQ\u6d88\u606f\u4e2d\u95f4\u4ef6\u6280\u672f", "pic": "http://img1.sycdn.imooc.com/szimg/5b6015ac00011ca105400300-360-202.jpg", "numbers": "824", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=262", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "220", "skill_name": "Java", "skill_pic": "http://img2.mukewang.com/5b17483e00019d4202400240.jpg", "skill_color": "ff4545", "category_pic": "http://img2.mukewang.com/5b1746ca000157da02400240.jpg", "pay_price": "348", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 34800, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/262", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffff739b", "bgcolor_end": "#b3ff739b", "skills": [{"id": "220", "name": "Java"}, {"id": "4903", "name": "SpringBoot"}]}, {"id": "225", "name": "HTTP\u534f\u8bae\u539f\u7406+\u5b9e\u8df5Web\u5f00\u53d1\u5de5\u7a0b\u5e08\u5fc5\u5b66", "order_type": 2, "short_description": "\u89e3\u6790HTTP\u534f\u8bae\u539f\u7406 \u592f\u5b9eHTTP\u6280\u672f\u57fa\u7840 \u6253\u901a\u524d\u540e\u7aef\u52a9\u4f60\u5feb\u901f\u6210\u957f", "pic": "http://img1.sycdn.imooc.com/szimg/5b0cb5df00016e5405400300-360-202.jpg", "numbers": "2593", "type": 2, "share": "http://www.imooc.com/m/wap/shizhan/classindex.html?cid=225", "is_learned": 0, "learn_rate": -1, "is_buy": 0, "is_new": 0, "level": "\u4e2d\u7ea7", "skill_id": "44", "skill_name": "JavaScript", "skill_pic": "http://img.mukewang.com/5b1893fd00017f4902400240.jpg", "skill_color": "eb3030", "category_pic": "http://img.mukewang.com/5b1893f90001d25702400240.jpg", "pay_price": "99", "discount_type": 0, "discount_name": "", "discount_price": "", "discount_start_time": 0, "discount_end_time": 0, "price": 9900, "course_type": 2, "wap": "http://coding.imooc.com/wap/classindex/cid/225", "is_learn": 0, "act_name": [], "bgcolor_start": "#ffd273e6", "bgcolor_end": "#b3d273e6", "skills": [{"id": "44", "name": "JavaScript"}, {"id": "222", "name": "Node.js"}]}]}], "errorCode": 1000, "errorDesc": "\u6210\u529f", "timestamp": 1561274618249}</t>
   </si>
   <si>
     <t>imooc_003</t>
@@ -198,8 +195,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -221,37 +218,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,90 +352,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -365,49 +362,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,42 +530,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -467,85 +542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,13 +556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,16 +596,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +628,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -641,21 +653,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -664,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -676,16 +673,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -694,115 +691,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,8 +1141,8 @@
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -1282,16 +1279,14 @@
       <c r="M3" t="s">
         <v>21</v>
       </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
+      <c r="N3"/>
     </row>
     <row r="4" ht="75.65" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -1303,22 +1298,22 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
         <v>21</v>
@@ -1326,22 +1321,22 @@
     </row>
     <row r="5" ht="42" customHeight="1" spans="1:14">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -1350,33 +1345,33 @@
         <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" t="s">
         <v>43</v>
-      </c>
-      <c r="N5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" ht="42" customHeight="1" spans="1:14">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
         <v>29</v>
@@ -1385,33 +1380,33 @@
         <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" ht="42" customHeight="1" spans="1:14">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
         <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
@@ -1420,7 +1415,7 @@
         <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
         <v>21</v>
@@ -1429,22 +1424,22 @@
     </row>
     <row r="8" ht="42" customHeight="1" spans="1:14">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
         <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
         <v>29</v>
@@ -1453,13 +1448,13 @@
         <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="14:14">

--- a/case/Imooc.xlsx
+++ b/case/Imooc.xlsx
@@ -195,10 +195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -218,14 +218,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,6 +264,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -240,29 +294,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,78 +337,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,187 +362,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,17 +556,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,16 +601,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,22 +624,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -673,16 +673,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -694,112 +694,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,8 +1141,8 @@
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>

--- a/case/Imooc.xlsx
+++ b/case/Imooc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22500" windowHeight="11310" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21000" windowHeight="10440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -35,14 +35,14 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -50,6 +50,73 @@
       <name val="等线"/>
       <charset val="0"/>
       <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -64,23 +131,24 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -89,66 +157,6 @@
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -160,14 +168,6 @@
       <sz val="18"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -178,67 +178,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,115 +358,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,11 +372,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -396,17 +402,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -428,47 +463,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -477,145 +477,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -957,7 +957,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M2" sqref="M2:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1589247670813}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1589935150458}</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1589247671068}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1589935150748}</t>
         </is>
       </c>
     </row>
@@ -1399,7 +1399,11 @@
           <t>通过</t>
         </is>
       </c>
-      <c r="N7" s="2" t="n"/>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1589934762980}</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="42" customHeight="1" s="1">
       <c r="A8" s="0" t="inlineStr">
@@ -1454,7 +1458,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1589247671539}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1589935151208}</t>
         </is>
       </c>
     </row>

--- a/case/Imooc.xlsx
+++ b/case/Imooc.xlsx
@@ -1287,7 +1287,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1589935150458}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590201939318}</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1589935150748}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590201939587}</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1589935151208}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590201940114}</t>
         </is>
       </c>
     </row>

--- a/case/Imooc.xlsx
+++ b/case/Imooc.xlsx
@@ -49,15 +49,8 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -72,44 +65,14 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -131,8 +94,15 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -141,22 +111,6 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -168,6 +122,52 @@
       <sz val="18"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -178,19 +178,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,157 +352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,17 +372,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -402,26 +416,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,19 +434,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,11 +455,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,7 +480,7 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -489,133 +489,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="N2" s="2" t="inlineStr">
         <is>
-          <t>{"status": 0, "data": {"banner": [{"id": 2262, "type": 6, "type_id": 330, "name": "\u524d\u7aef\u4e0b\u4e00\u4ee3\u5f00\u53d1\u8bed\u8a00TypeScript  \u4ece\u57fa\u7840\u5230axios\u5b9e\u6218", "pic": "http://szimg.mukewang.com/5cf721df09fc2be500000000.jpg", "links": ""}, {"id": 1648, "type": 6, "type_id": 169, "name": "Python3\u5165\u95e8\u673a\u5668\u5b66\u4e60 \u7ecf\u5178\u7b97\u6cd5\u4e0e\u5e94\u7528", "pic": "http://szimg.mukewang.com/5d0ed2d9085bd6ed09000300.jpg", "links": ""}, {"id": 1875, "type": 6, "type_id": 316, "name": "\u4ece\u57fa\u7840\u5230\u5b9e\u6218 \u624b\u628a\u624b\u5e26\u4f60\u638c\u63e1\u65b0\u7248Webpack4.0", "pic": "http://szimg.mukewang.com/5d0ed2ca086a9e6f09000300.jpg", "links": ""}, {"id": 1999, "type": 6, "type_id": 342, "name": "\u7eaf\u6b63\u5546\u4e1a\u7ea7\u5e94\u7528 Node.js Koa2\u5f00\u53d1\u5fae\u4fe1\u5c0f\u7a0b\u5e8f\u670d\u52a1\u7aef", "pic": "http://szimg.mukewang.com/5ceb5d370955f30f09000300.jpg", "links": ""}, {"id": 2158, "type": 99, "type_id": 0, "name": "Spring Cloud\u5fae\u670d\u52a1\u5f00\u53d1\u5b9e\u8df5", "pic": "http://img2.mukewang.com/5d088c4009bbebc009000300.jpg", "links": "https://www.imooc.com/read/37"}, {"id": 1709, "type": 6, "type_id": 354, "name": "Node.js\u5f00\u53d1\u4eff\u77e5\u4e4e\u670d\u52a1\u7aef \u6df1\u5165\u7406\u89e3RESTful API", "pic": "http://szimg.mukewang.com/5d0ed27508f7d96909000300.jpg", "links": ""}], "pic": [{"pic": "http://www.imooc.com/static/img/andriod/pic/actual_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/actual_night@3x.png", "type": 2}, {"pic": "http://www.imooc.com/static/img/andriod/pic/path_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/path_night@3x.png", "type": 6}, {"pic": "http://www.imooc.com/static/img/andriod/pic/question_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/question_night@3x.png", "type": 3}, {"pic": "http://www.imooc.com/static/img/andriod/pic/note_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/note_night@3x.png", "type": 4}, {"pic": "http://www.imooc.com/static/img/andriod/pic/discover_day@3x.png", "pic_night": "http://www.imooc.com/static/img/andriod/pic/discover_night@3x.png", "type": 5}]}, "errorCode": 1000, "errorDesc": "\u6210\u529f", "timestamp": 1561269343507}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590206580197}</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="M3" s="0" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>失败</t>
         </is>
       </c>
       <c r="N3" s="2" t="n"/>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="M4" s="0" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>失败</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590201939318}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590207519209}</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590201939587}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590207519512}</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590201940114}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590207519951}</t>
         </is>
       </c>
     </row>

--- a/case/Imooc.xlsx
+++ b/case/Imooc.xlsx
@@ -1287,7 +1287,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590207519209}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590212140308}</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590207519512}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590212140602}</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590207519951}</t>
+          <t>{"status": 1, "data": [], "errorCode": 1006, "errorDesc": "token error", "timestamp": 1590212141063}</t>
         </is>
       </c>
     </row>
